--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_2_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_2_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>834376.7622514451</v>
+        <v>832675.139475578</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1289937.06083778</v>
+        <v>1289937.060837779</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815378</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.168699673085007</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -786,16 +786,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>142.054382817392</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>43.09198093152767</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,22 +972,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>78.91321639899687</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.69719356569165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>33.60023339142369</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>33.60023339142367</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>30.8756010770935</v>
       </c>
       <c r="H9" t="n">
-        <v>83.0681699573841</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>359.4979381173229</v>
+        <v>359.4979381173227</v>
       </c>
       <c r="C11" t="n">
-        <v>342.0369882248498</v>
+        <v>342.0369882248497</v>
       </c>
       <c r="D11" t="n">
-        <v>331.4471380745252</v>
+        <v>331.4471380745251</v>
       </c>
       <c r="E11" t="n">
-        <v>358.6944665261041</v>
+        <v>358.694466526104</v>
       </c>
       <c r="F11" t="n">
-        <v>383.6401421955537</v>
+        <v>383.6401421955536</v>
       </c>
       <c r="G11" t="n">
-        <v>389.7126159571725</v>
+        <v>389.7126159571724</v>
       </c>
       <c r="H11" t="n">
-        <v>292.1287633562131</v>
+        <v>75.24785417458102</v>
       </c>
       <c r="I11" t="n">
-        <v>96.478996124142</v>
+        <v>96.4789961241419</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>132.1374230960847</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>189.5543566712978</v>
       </c>
       <c r="U11" t="n">
-        <v>227.9214119207344</v>
+        <v>227.9214119207343</v>
       </c>
       <c r="V11" t="n">
         <v>304.5163549239771</v>
       </c>
       <c r="W11" t="n">
-        <v>326.0050651712553</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.670417428305029</v>
+        <v>363.0020351098958</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0701892325241</v>
       </c>
       <c r="I12" t="n">
-        <v>46.02821696531916</v>
+        <v>46.02821696531915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.95104494454455</v>
+        <v>21.95104494454452</v>
       </c>
       <c r="S12" t="n">
         <v>148.2863250812116</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.5960766357796</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>144.0109175524701</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>123.1980591004113</v>
       </c>
       <c r="F13" t="n">
-        <v>122.1851444767735</v>
+        <v>122.1851444767734</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>129.602280889694</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>106.5749367041477</v>
       </c>
       <c r="S13" t="n">
-        <v>23.80716238644402</v>
+        <v>182.3771258474262</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>263.0255246565197</v>
+        <v>11.30192367677201</v>
       </c>
       <c r="V13" t="n">
-        <v>228.9017397776703</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>263.2870947904332</v>
       </c>
       <c r="X13" t="n">
-        <v>202.4737518428794</v>
+        <v>202.4737518428793</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.4979381173229</v>
+        <v>359.4979381173228</v>
       </c>
       <c r="C14" t="n">
         <v>342.0369882248498</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>358.6944665261041</v>
+        <v>358.694466526104</v>
       </c>
       <c r="F14" t="n">
-        <v>383.6401421955537</v>
+        <v>117.8348721410924</v>
       </c>
       <c r="G14" t="n">
-        <v>389.7126159571725</v>
+        <v>389.7126159571724</v>
       </c>
       <c r="H14" t="n">
-        <v>292.1287633562131</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>96.478996124142</v>
+        <v>96.47899612414193</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.1374230960847</v>
       </c>
       <c r="T14" t="n">
         <v>189.5543566712979</v>
       </c>
       <c r="U14" t="n">
-        <v>106.6411565301222</v>
+        <v>227.9214119207343</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>304.5163549239771</v>
       </c>
       <c r="W14" t="n">
-        <v>326.0050651712553</v>
+        <v>326.0050651712552</v>
       </c>
       <c r="X14" t="n">
         <v>346.4951971323113</v>
@@ -1704,7 +1704,7 @@
         <v>100.0701892325241</v>
       </c>
       <c r="I15" t="n">
-        <v>46.02821696531916</v>
+        <v>46.02821696531915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>21.95104494454455</v>
+        <v>21.95104494454451</v>
       </c>
       <c r="S15" t="n">
         <v>148.2863250812116</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.8571919408795</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>125.3795694720546</v>
+        <v>90.16057508982455</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>122.1851444767735</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>143.6990546590549</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>100.4571352453006</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>106.5749367041477</v>
       </c>
       <c r="S16" t="n">
-        <v>182.3771258474263</v>
+        <v>182.3771258474262</v>
       </c>
       <c r="T16" t="n">
-        <v>200.1975955000724</v>
+        <v>200.1975955000723</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>228.9017397776703</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>263.2870947904332</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>195.348749805937</v>
       </c>
     </row>
     <row r="17">
@@ -1847,22 +1847,22 @@
         <v>282.7449101258364</v>
       </c>
       <c r="D17" t="n">
-        <v>272.1550599755118</v>
+        <v>272.1550599755119</v>
       </c>
       <c r="E17" t="n">
         <v>299.4023884270907</v>
       </c>
       <c r="F17" t="n">
-        <v>324.3480640965403</v>
+        <v>324.3480640965404</v>
       </c>
       <c r="G17" t="n">
-        <v>330.4205378581591</v>
+        <v>330.4205378581592</v>
       </c>
       <c r="H17" t="n">
         <v>232.8366852571997</v>
       </c>
       <c r="I17" t="n">
-        <v>37.18691802512863</v>
+        <v>37.18691802512865</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.84534499707139</v>
+        <v>72.84534499707141</v>
       </c>
       <c r="T17" t="n">
         <v>130.2622785722846</v>
@@ -1904,10 +1904,10 @@
         <v>245.2242768249638</v>
       </c>
       <c r="W17" t="n">
-        <v>266.7129870722419</v>
+        <v>266.712987072242</v>
       </c>
       <c r="X17" t="n">
-        <v>287.2031190332979</v>
+        <v>287.203119033298</v>
       </c>
       <c r="Y17" t="n">
         <v>303.7099570108825</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.3039985367662</v>
+        <v>97.30399853676622</v>
       </c>
       <c r="C19" t="n">
-        <v>84.71883945345674</v>
+        <v>84.71883945345675</v>
       </c>
       <c r="D19" t="n">
-        <v>66.08749137304126</v>
+        <v>66.08749137304127</v>
       </c>
       <c r="E19" t="n">
-        <v>63.90598100139808</v>
+        <v>63.90598100139809</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.89306637776016</v>
       </c>
       <c r="G19" t="n">
-        <v>84.4069765600416</v>
+        <v>84.40697656004161</v>
       </c>
       <c r="H19" t="n">
-        <v>70.31020279068072</v>
+        <v>70.31020279068073</v>
       </c>
       <c r="I19" t="n">
-        <v>41.16505714628732</v>
+        <v>41.16505714628734</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.28285860513442</v>
+        <v>47.28285860513444</v>
       </c>
       <c r="S19" t="n">
         <v>123.0850477484129</v>
@@ -2056,7 +2056,7 @@
         <v>140.905517401059</v>
       </c>
       <c r="U19" t="n">
-        <v>203.7334465575063</v>
+        <v>203.7334465575064</v>
       </c>
       <c r="V19" t="n">
         <v>169.6096616786569</v>
@@ -2065,10 +2065,10 @@
         <v>203.9950166914199</v>
       </c>
       <c r="X19" t="n">
-        <v>143.181673743866</v>
+        <v>143.1816737438661</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.20587399955333</v>
+        <v>3.312807621791592</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>300.2058600183095</v>
       </c>
       <c r="C20" t="n">
-        <v>282.7449101258366</v>
+        <v>282.7449101258364</v>
       </c>
       <c r="D20" t="n">
         <v>272.1550599755119</v>
@@ -2099,7 +2099,7 @@
         <v>232.8366852571998</v>
       </c>
       <c r="I20" t="n">
-        <v>37.1869180251287</v>
+        <v>37.18691802512865</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.84534499707146</v>
+        <v>72.84534499707141</v>
       </c>
       <c r="T20" t="n">
         <v>130.2622785722846</v>
       </c>
       <c r="U20" t="n">
-        <v>168.6293338217211</v>
+        <v>168.629333821721</v>
       </c>
       <c r="V20" t="n">
-        <v>245.2242768249639</v>
+        <v>245.2242768249638</v>
       </c>
       <c r="W20" t="n">
         <v>266.712987072242</v>
@@ -2147,7 +2147,7 @@
         <v>287.203119033298</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.7099570108826</v>
+        <v>303.7099570108825</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.30399853676627</v>
+        <v>30.64762582467586</v>
       </c>
       <c r="C22" t="n">
-        <v>84.71883945345681</v>
+        <v>84.71883945345675</v>
       </c>
       <c r="D22" t="n">
-        <v>66.08749137304133</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.90598100139815</v>
+        <v>63.90598100139809</v>
       </c>
       <c r="F22" t="n">
-        <v>62.89306637776022</v>
+        <v>62.89306637776016</v>
       </c>
       <c r="G22" t="n">
-        <v>84.40697656004167</v>
+        <v>84.40697656004161</v>
       </c>
       <c r="H22" t="n">
-        <v>70.31020279068079</v>
+        <v>70.31020279068075</v>
       </c>
       <c r="I22" t="n">
-        <v>41.1650571462874</v>
+        <v>41.16505714628734</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.28285860513449</v>
+        <v>47.28285860513443</v>
       </c>
       <c r="S22" t="n">
-        <v>123.085047748413</v>
+        <v>123.0850477484129</v>
       </c>
       <c r="T22" t="n">
-        <v>140.9055174010591</v>
+        <v>140.905517401059</v>
       </c>
       <c r="U22" t="n">
         <v>203.7334465575064</v>
       </c>
       <c r="V22" t="n">
-        <v>169.609661678657</v>
+        <v>169.6096616786569</v>
       </c>
       <c r="W22" t="n">
-        <v>203.99501669142</v>
+        <v>203.9950166914199</v>
       </c>
       <c r="X22" t="n">
         <v>143.1816737438661</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.312807621790721</v>
+        <v>136.0566717069237</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>300.2058600183095</v>
       </c>
       <c r="C23" t="n">
-        <v>282.7449101258366</v>
+        <v>282.7449101258365</v>
       </c>
       <c r="D23" t="n">
         <v>272.1550599755119</v>
@@ -2336,7 +2336,7 @@
         <v>232.8366852571998</v>
       </c>
       <c r="I23" t="n">
-        <v>37.1869180251287</v>
+        <v>37.18691802512866</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,16 +2363,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-3.201312064710532e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.84534499707146</v>
+        <v>72.84534499707144</v>
       </c>
       <c r="T23" t="n">
         <v>130.2622785722846</v>
       </c>
       <c r="U23" t="n">
-        <v>168.6293338217211</v>
+        <v>168.629333821721</v>
       </c>
       <c r="V23" t="n">
         <v>245.2242768249639</v>
@@ -2384,7 +2384,7 @@
         <v>287.203119033298</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.7099570108826</v>
+        <v>303.7099570108825</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.30399853676627</v>
+        <v>97.30399853676623</v>
       </c>
       <c r="C25" t="n">
-        <v>84.71883945345681</v>
+        <v>84.71883945345677</v>
       </c>
       <c r="D25" t="n">
-        <v>66.08749137304133</v>
+        <v>66.08749137304129</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>63.9059810013981</v>
       </c>
       <c r="F25" t="n">
-        <v>62.89306637776022</v>
+        <v>62.89306637776018</v>
       </c>
       <c r="G25" t="n">
-        <v>84.40697656004167</v>
+        <v>84.40697656004163</v>
       </c>
       <c r="H25" t="n">
-        <v>70.31020279068079</v>
+        <v>70.31020279068076</v>
       </c>
       <c r="I25" t="n">
-        <v>41.1650571462874</v>
+        <v>41.16505714628735</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.28285860513449</v>
+        <v>47.28285860513444</v>
       </c>
       <c r="S25" t="n">
         <v>123.085047748413</v>
@@ -2530,19 +2530,19 @@
         <v>140.9055174010591</v>
       </c>
       <c r="U25" t="n">
-        <v>134.8955634737722</v>
+        <v>203.7334465575064</v>
       </c>
       <c r="V25" t="n">
-        <v>169.609661678657</v>
+        <v>169.6096616786569</v>
       </c>
       <c r="W25" t="n">
-        <v>203.99501669142</v>
+        <v>71.25115260628796</v>
       </c>
       <c r="X25" t="n">
         <v>143.1816737438661</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.0566717069238</v>
+        <v>136.0566717069237</v>
       </c>
     </row>
     <row r="26">
@@ -2719,16 +2719,16 @@
         <v>66.08749137304133</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.90598100139815</v>
       </c>
       <c r="F28" t="n">
         <v>62.89306637776022</v>
       </c>
       <c r="G28" t="n">
-        <v>84.40697656004167</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.3102027906808</v>
+        <v>69.25617387072364</v>
       </c>
       <c r="I28" t="n">
         <v>41.1650571462874</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.28285860513449</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>123.085047748413</v>
@@ -2773,7 +2773,7 @@
         <v>169.609661678657</v>
       </c>
       <c r="W28" t="n">
-        <v>135.1571336076853</v>
+        <v>203.99501669142</v>
       </c>
       <c r="X28" t="n">
         <v>143.1816737438661</v>
@@ -2792,7 +2792,7 @@
         <v>300.2058600183095</v>
       </c>
       <c r="C29" t="n">
-        <v>282.7449101258366</v>
+        <v>282.7449101258365</v>
       </c>
       <c r="D29" t="n">
         <v>272.1550599755119</v>
@@ -2810,7 +2810,7 @@
         <v>232.8366852571998</v>
       </c>
       <c r="I29" t="n">
-        <v>37.1869180251287</v>
+        <v>37.18691802512869</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>130.2622785722846</v>
       </c>
       <c r="U29" t="n">
-        <v>168.6293338217211</v>
+        <v>168.629333821721</v>
       </c>
       <c r="V29" t="n">
         <v>245.2242768249639</v>
@@ -2858,7 +2858,7 @@
         <v>287.203119033298</v>
       </c>
       <c r="Y29" t="n">
-        <v>303.7099570108826</v>
+        <v>303.7099570108825</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.30399853676627</v>
+        <v>97.30399853676626</v>
       </c>
       <c r="C31" t="n">
-        <v>84.71883945345681</v>
+        <v>84.71883945345679</v>
       </c>
       <c r="D31" t="n">
-        <v>66.08749137304133</v>
+        <v>66.08749137304132</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>63.90598100139813</v>
       </c>
       <c r="F31" t="n">
-        <v>62.89306637776022</v>
+        <v>62.89306637776021</v>
       </c>
       <c r="G31" t="n">
-        <v>15.56909347630757</v>
+        <v>84.40697656004166</v>
       </c>
       <c r="H31" t="n">
         <v>70.31020279068079</v>
       </c>
       <c r="I31" t="n">
-        <v>41.1650571462874</v>
+        <v>41.16505714628738</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.28285860513449</v>
+        <v>47.28285860513447</v>
       </c>
       <c r="S31" t="n">
         <v>123.085047748413</v>
@@ -3007,16 +3007,16 @@
         <v>203.7334465575064</v>
       </c>
       <c r="V31" t="n">
-        <v>169.609661678657</v>
+        <v>169.6096616786569</v>
       </c>
       <c r="W31" t="n">
-        <v>203.99501669142</v>
+        <v>71.25115260628684</v>
       </c>
       <c r="X31" t="n">
         <v>143.1816737438661</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.0566717069238</v>
+        <v>136.0566717069237</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3187,10 @@
         <v>97.30399853676627</v>
       </c>
       <c r="C34" t="n">
-        <v>18.06246674136558</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>66.08749137304133</v>
       </c>
       <c r="E34" t="n">
         <v>63.90598100139815</v>
@@ -3247,7 +3247,7 @@
         <v>169.609661678657</v>
       </c>
       <c r="W34" t="n">
-        <v>203.99501669142</v>
+        <v>155.9699920597444</v>
       </c>
       <c r="X34" t="n">
         <v>143.1816737438661</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.6379317572977</v>
+        <v>294.6379317572976</v>
       </c>
       <c r="C35" t="n">
-        <v>277.1769818648247</v>
+        <v>277.1769818648246</v>
       </c>
       <c r="D35" t="n">
-        <v>266.5871317145001</v>
+        <v>266.5871317145</v>
       </c>
       <c r="E35" t="n">
-        <v>293.8344601660789</v>
+        <v>293.8344601660788</v>
       </c>
       <c r="F35" t="n">
         <v>318.7801358355285</v>
@@ -3284,7 +3284,7 @@
         <v>227.2687569961879</v>
       </c>
       <c r="I35" t="n">
-        <v>31.61898976411685</v>
+        <v>31.61898976411678</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>1.985970757113762</v>
       </c>
       <c r="S35" t="n">
-        <v>67.27741673605962</v>
+        <v>67.27741673605954</v>
       </c>
       <c r="T35" t="n">
-        <v>124.6943503112728</v>
+        <v>124.6943503112727</v>
       </c>
       <c r="U35" t="n">
-        <v>244.594358718773</v>
+        <v>244.5943587187739</v>
       </c>
       <c r="V35" t="n">
         <v>239.656348563952</v>
@@ -3332,7 +3332,7 @@
         <v>281.6351907722861</v>
       </c>
       <c r="Y35" t="n">
-        <v>298.1420287498707</v>
+        <v>298.1420287498706</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.73607027575441</v>
+        <v>91.73607027575434</v>
       </c>
       <c r="C37" t="n">
-        <v>79.15091119244495</v>
+        <v>79.15091119244488</v>
       </c>
       <c r="D37" t="n">
-        <v>60.51956311202947</v>
+        <v>60.5195631120294</v>
       </c>
       <c r="E37" t="n">
-        <v>58.33805274038538</v>
+        <v>58.33805274038622</v>
       </c>
       <c r="F37" t="n">
-        <v>57.32513811674836</v>
+        <v>57.32513811674829</v>
       </c>
       <c r="G37" t="n">
-        <v>78.83904829902981</v>
+        <v>78.83904829902974</v>
       </c>
       <c r="H37" t="n">
-        <v>64.74227452966893</v>
+        <v>64.74227452966886</v>
       </c>
       <c r="I37" t="n">
-        <v>35.59712888527554</v>
+        <v>35.59712888527547</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71493034412264</v>
+        <v>41.71493034412256</v>
       </c>
       <c r="S37" t="n">
         <v>117.5171194874011</v>
@@ -3478,19 +3478,19 @@
         <v>135.3375891400472</v>
       </c>
       <c r="U37" t="n">
-        <v>198.1655182964946</v>
+        <v>198.1655182964945</v>
       </c>
       <c r="V37" t="n">
-        <v>164.0417334176451</v>
+        <v>164.041733417645</v>
       </c>
       <c r="W37" t="n">
-        <v>198.4270884304081</v>
+        <v>198.427088430408</v>
       </c>
       <c r="X37" t="n">
-        <v>137.6137454828543</v>
+        <v>137.6137454828542</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.4887434459119</v>
+        <v>130.4887434459118</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>294.6379317572977</v>
       </c>
       <c r="C38" t="n">
-        <v>277.1769818648247</v>
+        <v>277.1769818648246</v>
       </c>
       <c r="D38" t="n">
         <v>266.5871317145001</v>
@@ -3521,7 +3521,7 @@
         <v>227.2687569961879</v>
       </c>
       <c r="I38" t="n">
-        <v>31.61898976411685</v>
+        <v>31.6189897641168</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>1.985970757113762</v>
       </c>
       <c r="S38" t="n">
-        <v>148.8103698941226</v>
+        <v>67.27741673605956</v>
       </c>
       <c r="T38" t="n">
-        <v>124.6943503112728</v>
+        <v>206.2273034693367</v>
       </c>
       <c r="U38" t="n">
         <v>163.0614055607092</v>
@@ -3569,7 +3569,7 @@
         <v>281.6351907722861</v>
       </c>
       <c r="Y38" t="n">
-        <v>298.1420287498707</v>
+        <v>298.1420287498706</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.73607027575441</v>
+        <v>91.73607027575437</v>
       </c>
       <c r="C40" t="n">
-        <v>79.15091119244495</v>
+        <v>79.15091119244491</v>
       </c>
       <c r="D40" t="n">
-        <v>60.51956311202947</v>
+        <v>60.51956311202943</v>
       </c>
       <c r="E40" t="n">
-        <v>58.33805274038629</v>
+        <v>58.33805274038625</v>
       </c>
       <c r="F40" t="n">
-        <v>57.32513811674836</v>
+        <v>57.32513811674832</v>
       </c>
       <c r="G40" t="n">
-        <v>78.83904829902981</v>
+        <v>78.83904829902977</v>
       </c>
       <c r="H40" t="n">
-        <v>64.74227452966893</v>
+        <v>64.74227452966889</v>
       </c>
       <c r="I40" t="n">
-        <v>35.59712888527554</v>
+        <v>35.5971288852755</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71493034412264</v>
+        <v>41.71493034412259</v>
       </c>
       <c r="S40" t="n">
         <v>117.5171194874011</v>
@@ -3715,7 +3715,7 @@
         <v>135.3375891400472</v>
       </c>
       <c r="U40" t="n">
-        <v>198.1655182964946</v>
+        <v>198.1655182964945</v>
       </c>
       <c r="V40" t="n">
         <v>164.0417334176451</v>
@@ -3724,7 +3724,7 @@
         <v>198.4270884304081</v>
       </c>
       <c r="X40" t="n">
-        <v>137.6137454828543</v>
+        <v>137.6137454828542</v>
       </c>
       <c r="Y40" t="n">
         <v>130.4887434459119</v>
@@ -3740,7 +3740,7 @@
         <v>300.2058600183095</v>
       </c>
       <c r="C41" t="n">
-        <v>282.7449101258364</v>
+        <v>282.7449101258365</v>
       </c>
       <c r="D41" t="n">
         <v>272.1550599755119</v>
@@ -3758,7 +3758,7 @@
         <v>232.8366852571998</v>
       </c>
       <c r="I41" t="n">
-        <v>37.18691802512865</v>
+        <v>37.18691802512868</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>72.84534499707141</v>
+        <v>72.84534499707144</v>
       </c>
       <c r="T41" t="n">
         <v>130.2622785722846</v>
@@ -3797,7 +3797,7 @@
         <v>168.629333821721</v>
       </c>
       <c r="V41" t="n">
-        <v>245.2242768249638</v>
+        <v>245.2242768249639</v>
       </c>
       <c r="W41" t="n">
         <v>266.712987072242</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.30399853676622</v>
+        <v>97.30399853676624</v>
       </c>
       <c r="C43" t="n">
-        <v>84.71883945345675</v>
+        <v>84.71883945345678</v>
       </c>
       <c r="D43" t="n">
-        <v>66.08749137304127</v>
+        <v>66.0874913730413</v>
       </c>
       <c r="E43" t="n">
-        <v>63.90598100139809</v>
+        <v>63.90598100139812</v>
       </c>
       <c r="F43" t="n">
-        <v>62.89306637776016</v>
+        <v>62.89306637776019</v>
       </c>
       <c r="G43" t="n">
-        <v>84.40697656004161</v>
+        <v>84.40697656004164</v>
       </c>
       <c r="H43" t="n">
-        <v>70.31020279068075</v>
+        <v>70.31020279068078</v>
       </c>
       <c r="I43" t="n">
-        <v>41.16505714628734</v>
+        <v>41.16505714628737</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>47.28285860513443</v>
+        <v>47.28285860513446</v>
       </c>
       <c r="S43" t="n">
-        <v>123.0850477484129</v>
+        <v>123.085047748413</v>
       </c>
       <c r="T43" t="n">
         <v>140.9055174010591</v>
@@ -3961,10 +3961,10 @@
         <v>203.9950166914199</v>
       </c>
       <c r="X43" t="n">
-        <v>143.1816737438661</v>
+        <v>10.43780965873373</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.3128076217927</v>
+        <v>136.0566717069237</v>
       </c>
     </row>
     <row r="44">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.30399853676627</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>84.71883945345681</v>
+        <v>49.27897390509029</v>
       </c>
       <c r="D46" t="n">
         <v>66.08749137304133</v>
@@ -4144,13 +4144,13 @@
         <v>63.90598100139815</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.89306637776022</v>
       </c>
       <c r="G46" t="n">
         <v>84.40697656004167</v>
       </c>
       <c r="H46" t="n">
-        <v>70.31020279068079</v>
+        <v>70.3102027906808</v>
       </c>
       <c r="I46" t="n">
         <v>41.1650571462874</v>
@@ -4195,7 +4195,7 @@
         <v>169.609661678657</v>
       </c>
       <c r="W46" t="n">
-        <v>134.1442189840475</v>
+        <v>203.99501669142</v>
       </c>
       <c r="X46" t="n">
         <v>143.1816737438661</v>
@@ -4316,10 +4316,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="F2" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.0600686093459</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C3" t="n">
-        <v>259.0600686093459</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D3" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>112.5255106362308</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4410,19 +4410,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4434,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="W3" t="n">
-        <v>259.0600686093459</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="X3" t="n">
-        <v>259.0600686093459</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y3" t="n">
-        <v>259.0600686093459</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.7844730889342</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>333.7844730889342</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D5" t="n">
-        <v>333.7844730889342</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E5" t="n">
-        <v>333.7844730889342</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F5" t="n">
-        <v>90.33569644483418</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>74.87838582348564</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y5" t="n">
-        <v>333.7844730889342</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>341.0228630172405</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C6" t="n">
-        <v>166.5698337361135</v>
+        <v>554.4520179977666</v>
       </c>
       <c r="D6" t="n">
-        <v>166.5698337361135</v>
+        <v>405.5176083365153</v>
       </c>
       <c r="E6" t="n">
-        <v>166.5698337361135</v>
+        <v>246.2801533310598</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>99.74559535794478</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4686,10 +4686,10 @@
         <v>728.9050472788936</v>
       </c>
       <c r="X6" t="n">
-        <v>521.0535470733607</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y6" t="n">
-        <v>509.2382000373086</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="7">
@@ -4750,16 +4750,16 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
         <v>41.77557929797318</v>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.23626279480629</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>72.23626279480629</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D8" t="n">
-        <v>72.23626279480629</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E8" t="n">
-        <v>72.23626279480629</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F8" t="n">
-        <v>65.29076204560282</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4835,19 +4835,19 @@
         <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="V8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="W8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="X8" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="Y8" t="n">
         <v>559.1338160830064</v>
-      </c>
-      <c r="V8" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="W8" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="X8" t="n">
-        <v>315.6850394389064</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.4453565401495</v>
+        <v>521.1447485139397</v>
       </c>
       <c r="C9" t="n">
-        <v>548.4453565401495</v>
+        <v>346.6917192328127</v>
       </c>
       <c r="D9" t="n">
-        <v>548.4453565401495</v>
+        <v>197.7573095715614</v>
       </c>
       <c r="E9" t="n">
-        <v>389.207901534694</v>
+        <v>197.7573095715614</v>
       </c>
       <c r="F9" t="n">
-        <v>242.673343561579</v>
+        <v>51.22275159844642</v>
       </c>
       <c r="G9" t="n">
-        <v>103.9425181441945</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4893,10 +4893,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4917,16 +4917,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>521.1447485139397</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2289.563061916836</v>
+        <v>2070.491436480844</v>
       </c>
       <c r="C11" t="n">
-        <v>1944.071154619008</v>
+        <v>1724.999529183016</v>
       </c>
       <c r="D11" t="n">
-        <v>1609.276065654841</v>
+        <v>1390.204440218849</v>
       </c>
       <c r="E11" t="n">
-        <v>1246.95842269918</v>
+        <v>1027.886797263188</v>
       </c>
       <c r="F11" t="n">
-        <v>859.4431275521561</v>
+        <v>640.3715021161643</v>
       </c>
       <c r="G11" t="n">
-        <v>465.7940205247091</v>
+        <v>246.7223950887173</v>
       </c>
       <c r="H11" t="n">
-        <v>170.7144615790393</v>
+        <v>170.7144615790392</v>
       </c>
       <c r="I11" t="n">
         <v>73.26093014051206</v>
@@ -5069,22 +5069,22 @@
         <v>3529.574362484103</v>
       </c>
       <c r="T11" t="n">
-        <v>3529.574362484103</v>
+        <v>3338.105315341378</v>
       </c>
       <c r="U11" t="n">
-        <v>3299.350714079321</v>
+        <v>3107.881666936597</v>
       </c>
       <c r="V11" t="n">
-        <v>2991.758436378334</v>
+        <v>2800.28938923561</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.460390750804</v>
+        <v>2800.28938923561</v>
       </c>
       <c r="X11" t="n">
-        <v>2662.460390750804</v>
+        <v>2800.28938923561</v>
       </c>
       <c r="Y11" t="n">
-        <v>2652.692292338374</v>
+        <v>2433.620666902382</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J12" t="n">
-        <v>73.26093014051206</v>
+        <v>190.3379902225956</v>
       </c>
       <c r="K12" t="n">
-        <v>138.1645320529169</v>
+        <v>517.0621767774533</v>
       </c>
       <c r="L12" t="n">
-        <v>365.8516484470864</v>
+        <v>1017.787562156219</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.153777133777</v>
+        <v>1317.431918087315</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.003943178186</v>
+        <v>1986.282084131723</v>
       </c>
       <c r="O12" t="n">
-        <v>2216.45549637136</v>
+        <v>2531.733637324898</v>
       </c>
       <c r="P12" t="n">
         <v>2637.225387989852</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>342.1458412811622</v>
+        <v>452.034146773723</v>
       </c>
       <c r="C13" t="n">
-        <v>196.6802679958388</v>
+        <v>452.034146773723</v>
       </c>
       <c r="D13" t="n">
-        <v>196.6802679958388</v>
+        <v>452.034146773723</v>
       </c>
       <c r="E13" t="n">
-        <v>196.6802679958388</v>
+        <v>327.5916628339135</v>
       </c>
       <c r="F13" t="n">
-        <v>73.26093014051206</v>
+        <v>204.1723249785868</v>
       </c>
       <c r="G13" t="n">
-        <v>73.26093014051206</v>
+        <v>204.1723249785868</v>
       </c>
       <c r="H13" t="n">
         <v>73.26093014051206</v>
@@ -5197,22 +5197,22 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J13" t="n">
-        <v>77.75297491485397</v>
+        <v>77.75297491485411</v>
       </c>
       <c r="K13" t="n">
-        <v>200.1732755642885</v>
+        <v>200.1732755642888</v>
       </c>
       <c r="L13" t="n">
-        <v>405.922474544373</v>
+        <v>405.9224745443734</v>
       </c>
       <c r="M13" t="n">
-        <v>631.9948119560884</v>
+        <v>631.9948119560888</v>
       </c>
       <c r="N13" t="n">
-        <v>858.6732437755401</v>
+        <v>858.6732437755406</v>
       </c>
       <c r="O13" t="n">
-        <v>1053.787216937164</v>
+        <v>1053.787216937165</v>
       </c>
       <c r="P13" t="n">
         <v>1200.540283925176</v>
@@ -5221,28 +5221,28 @@
         <v>1225.78650319964</v>
       </c>
       <c r="R13" t="n">
-        <v>1225.78650319964</v>
+        <v>1118.13505198333</v>
       </c>
       <c r="S13" t="n">
-        <v>1201.738864425454</v>
+        <v>933.9157329455256</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.738864425454</v>
+        <v>933.9157329455256</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0565162875553</v>
+        <v>922.4996484235337</v>
       </c>
       <c r="V13" t="n">
-        <v>704.842637724252</v>
+        <v>922.4996484235337</v>
       </c>
       <c r="W13" t="n">
-        <v>704.842637724252</v>
+        <v>656.5530880291567</v>
       </c>
       <c r="X13" t="n">
-        <v>500.3236964688182</v>
+        <v>452.034146773723</v>
       </c>
       <c r="Y13" t="n">
-        <v>500.3236964688182</v>
+        <v>452.034146773723</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1954.767972952669</v>
+        <v>1391.198242234815</v>
       </c>
       <c r="C14" t="n">
-        <v>1609.276065654841</v>
+        <v>1045.706334936987</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.276065654841</v>
+        <v>1045.706334936987</v>
       </c>
       <c r="E14" t="n">
-        <v>1246.95842269918</v>
+        <v>683.3886919813269</v>
       </c>
       <c r="F14" t="n">
-        <v>859.4431275521561</v>
+        <v>564.3635686064862</v>
       </c>
       <c r="G14" t="n">
-        <v>465.7940205247091</v>
+        <v>170.7144615790393</v>
       </c>
       <c r="H14" t="n">
-        <v>170.7144615790394</v>
+        <v>170.7144615790393</v>
       </c>
       <c r="I14" t="n">
         <v>73.26093014051206</v>
@@ -5279,10 +5279,10 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K14" t="n">
-        <v>658.7300432849238</v>
+        <v>658.7300432849242</v>
       </c>
       <c r="L14" t="n">
-        <v>1206.604021178496</v>
+        <v>1206.604021178497</v>
       </c>
       <c r="M14" t="n">
         <v>1832.825931072074</v>
@@ -5291,7 +5291,7 @@
         <v>2454.548768616767</v>
       </c>
       <c r="O14" t="n">
-        <v>2996.436376295533</v>
+        <v>2996.436376295534</v>
       </c>
       <c r="P14" t="n">
         <v>3421.250529528935</v>
@@ -5303,25 +5303,25 @@
         <v>3663.046507025603</v>
       </c>
       <c r="S14" t="n">
-        <v>3663.046507025603</v>
+        <v>3529.574362484103</v>
       </c>
       <c r="T14" t="n">
-        <v>3471.577459882878</v>
+        <v>3338.105315341378</v>
       </c>
       <c r="U14" t="n">
-        <v>3363.859119953462</v>
+        <v>3107.881666936595</v>
       </c>
       <c r="V14" t="n">
-        <v>3363.859119953462</v>
+        <v>2800.289389235608</v>
       </c>
       <c r="W14" t="n">
-        <v>3034.561074325932</v>
+        <v>2470.991343608077</v>
       </c>
       <c r="X14" t="n">
-        <v>2684.565925707435</v>
+        <v>2120.996194989581</v>
       </c>
       <c r="Y14" t="n">
-        <v>2317.897203374207</v>
+        <v>1754.327472656353</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J15" t="n">
-        <v>190.3379902225955</v>
+        <v>190.3379902225956</v>
       </c>
       <c r="K15" t="n">
-        <v>517.0621767774533</v>
+        <v>517.0621767774534</v>
       </c>
       <c r="L15" t="n">
         <v>1017.787562156219</v>
       </c>
       <c r="M15" t="n">
-        <v>1476.702727733895</v>
+        <v>1193.04167773041</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.003943178186</v>
+        <v>1463.027428319695</v>
       </c>
       <c r="O15" t="n">
-        <v>2216.45549637136</v>
+        <v>2008.478981512869</v>
       </c>
       <c r="P15" t="n">
-        <v>2637.225387989852</v>
+        <v>2429.248873131361</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.824633197486</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>342.1869517697385</v>
+        <v>534.3739700101622</v>
       </c>
       <c r="C16" t="n">
-        <v>199.9069599102642</v>
+        <v>534.3739700101622</v>
       </c>
       <c r="D16" t="n">
-        <v>73.26093014051206</v>
+        <v>443.3026820406425</v>
       </c>
       <c r="E16" t="n">
-        <v>73.26093014051206</v>
+        <v>443.3026820406425</v>
       </c>
       <c r="F16" t="n">
-        <v>73.26093014051206</v>
+        <v>319.8833441853157</v>
       </c>
       <c r="G16" t="n">
-        <v>73.26093014051206</v>
+        <v>174.732783923644</v>
       </c>
       <c r="H16" t="n">
-        <v>73.26093014051206</v>
+        <v>174.732783923644</v>
       </c>
       <c r="I16" t="n">
         <v>73.26093014051206</v>
       </c>
       <c r="J16" t="n">
-        <v>77.75297491485401</v>
+        <v>77.75297491485406</v>
       </c>
       <c r="K16" t="n">
-        <v>200.1732755642884</v>
+        <v>200.1732755642886</v>
       </c>
       <c r="L16" t="n">
-        <v>405.922474544373</v>
+        <v>405.9224745443732</v>
       </c>
       <c r="M16" t="n">
-        <v>631.9948119560884</v>
+        <v>631.9948119560888</v>
       </c>
       <c r="N16" t="n">
-        <v>858.6732437755401</v>
+        <v>858.6732437755406</v>
       </c>
       <c r="O16" t="n">
-        <v>1053.787216937164</v>
+        <v>1053.787216937165</v>
       </c>
       <c r="P16" t="n">
         <v>1200.540283925176</v>
       </c>
       <c r="Q16" t="n">
-        <v>1225.78650319964</v>
+        <v>1225.786503199641</v>
       </c>
       <c r="R16" t="n">
-        <v>1225.78650319964</v>
+        <v>1118.13505198333</v>
       </c>
       <c r="S16" t="n">
-        <v>1041.567184161835</v>
+        <v>933.9157329455254</v>
       </c>
       <c r="T16" t="n">
-        <v>839.3473907274189</v>
+        <v>731.6959395111087</v>
       </c>
       <c r="U16" t="n">
-        <v>839.3473907274189</v>
+        <v>731.6959395111087</v>
       </c>
       <c r="V16" t="n">
-        <v>608.1335121641155</v>
+        <v>731.6959395111087</v>
       </c>
       <c r="W16" t="n">
-        <v>342.1869517697385</v>
+        <v>731.6959395111087</v>
       </c>
       <c r="X16" t="n">
-        <v>342.1869517697385</v>
+        <v>731.6959395111087</v>
       </c>
       <c r="Y16" t="n">
-        <v>342.1869517697385</v>
+        <v>534.3739700101622</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1870.326146065226</v>
+        <v>1870.326146065227</v>
       </c>
       <c r="C17" t="n">
-        <v>1584.725226746199</v>
+        <v>1584.7252267462</v>
       </c>
       <c r="D17" t="n">
         <v>1309.821125760834</v>
@@ -5501,13 +5501,13 @@
         <v>1007.394470783975</v>
       </c>
       <c r="F17" t="n">
-        <v>679.7701636157519</v>
+        <v>679.7701636157525</v>
       </c>
       <c r="G17" t="n">
-        <v>346.0120445671064</v>
+        <v>346.0120445671068</v>
       </c>
       <c r="H17" t="n">
-        <v>110.8234736002379</v>
+        <v>110.823473600238</v>
       </c>
       <c r="I17" t="n">
         <v>73.26093014051206</v>
@@ -5516,7 +5516,7 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K17" t="n">
-        <v>658.730043284924</v>
+        <v>658.7300432849242</v>
       </c>
       <c r="L17" t="n">
         <v>1206.604021178496</v>
@@ -5592,25 +5592,25 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J18" t="n">
-        <v>73.26093014051206</v>
+        <v>190.3379902225956</v>
       </c>
       <c r="K18" t="n">
-        <v>138.164532052917</v>
+        <v>517.0621767774533</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8899174316823</v>
+        <v>650.6556203057939</v>
       </c>
       <c r="M18" t="n">
-        <v>1275.192046118373</v>
+        <v>1286.957748992485</v>
       </c>
       <c r="N18" t="n">
-        <v>1944.042212162782</v>
+        <v>1955.807915036893</v>
       </c>
       <c r="O18" t="n">
-        <v>2489.493765355956</v>
+        <v>2323.757122466407</v>
       </c>
       <c r="P18" t="n">
-        <v>2637.225387989852</v>
+        <v>2429.248873131361</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.824633197486</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>488.0028981454673</v>
+        <v>551.531248021993</v>
       </c>
       <c r="C19" t="n">
-        <v>402.4283128389454</v>
+        <v>465.9566627154709</v>
       </c>
       <c r="D19" t="n">
-        <v>335.6732710479946</v>
+        <v>399.2016209245202</v>
       </c>
       <c r="E19" t="n">
-        <v>271.1217750869864</v>
+        <v>334.650124963512</v>
       </c>
       <c r="F19" t="n">
-        <v>271.1217750869864</v>
+        <v>271.1217750869865</v>
       </c>
       <c r="G19" t="n">
-        <v>185.8622028041161</v>
+        <v>185.8622028041162</v>
       </c>
       <c r="H19" t="n">
         <v>114.8417959448427</v>
@@ -5674,10 +5674,10 @@
         <v>136.4521322328772</v>
       </c>
       <c r="K19" t="n">
-        <v>317.571590200335</v>
+        <v>317.5715902003349</v>
       </c>
       <c r="L19" t="n">
-        <v>582.0199464984428</v>
+        <v>582.0199464984427</v>
       </c>
       <c r="M19" t="n">
         <v>866.7914412281814</v>
@@ -5704,19 +5704,19 @@
         <v>1380.962161991698</v>
       </c>
       <c r="U19" t="n">
-        <v>1175.170801832601</v>
+        <v>1175.1708018326</v>
       </c>
       <c r="V19" t="n">
-        <v>1003.847911248099</v>
+        <v>1003.847911248098</v>
       </c>
       <c r="W19" t="n">
-        <v>797.7923388325229</v>
+        <v>797.7923388325228</v>
       </c>
       <c r="X19" t="n">
-        <v>653.1643855558905</v>
+        <v>653.1643855558904</v>
       </c>
       <c r="Y19" t="n">
-        <v>586.2897653543221</v>
+        <v>649.8181152308478</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1870.326146065227</v>
+        <v>1870.326146065226</v>
       </c>
       <c r="C20" t="n">
         <v>1584.725226746199</v>
@@ -5753,7 +5753,7 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K20" t="n">
-        <v>658.7300432849242</v>
+        <v>658.730043284924</v>
       </c>
       <c r="L20" t="n">
         <v>1206.604021178496</v>
@@ -5777,19 +5777,19 @@
         <v>3663.046507025603</v>
       </c>
       <c r="S20" t="n">
-        <v>3589.465350462905</v>
+        <v>3589.465350462904</v>
       </c>
       <c r="T20" t="n">
-        <v>3457.887291298981</v>
+        <v>3457.88729129898</v>
       </c>
       <c r="U20" t="n">
-        <v>3287.554630873</v>
+        <v>3287.554630872999</v>
       </c>
       <c r="V20" t="n">
         <v>3039.853341150814</v>
       </c>
       <c r="W20" t="n">
-        <v>2770.446283502085</v>
+        <v>2770.446283502084</v>
       </c>
       <c r="X20" t="n">
         <v>2480.34212286239</v>
@@ -5829,25 +5829,25 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J21" t="n">
-        <v>73.26093014051206</v>
+        <v>190.3379902225956</v>
       </c>
       <c r="K21" t="n">
-        <v>138.164532052917</v>
+        <v>517.0621767774533</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8899174316823</v>
+        <v>1017.787562156219</v>
       </c>
       <c r="M21" t="n">
-        <v>1275.192046118373</v>
+        <v>1654.089690842909</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.003943178186</v>
+        <v>1852.951124403657</v>
       </c>
       <c r="O21" t="n">
-        <v>2216.45549637136</v>
+        <v>2008.478981512869</v>
       </c>
       <c r="P21" t="n">
-        <v>2637.225387989852</v>
+        <v>2429.248873131361</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.824633197486</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>551.5312480219932</v>
+        <v>484.7762062310421</v>
       </c>
       <c r="C22" t="n">
-        <v>465.9566627154712</v>
+        <v>399.2016209245202</v>
       </c>
       <c r="D22" t="n">
-        <v>399.2016209245203</v>
+        <v>399.2016209245202</v>
       </c>
       <c r="E22" t="n">
-        <v>334.6501249635121</v>
+        <v>334.650124963512</v>
       </c>
       <c r="F22" t="n">
-        <v>271.1217750869866</v>
+        <v>271.1217750869865</v>
       </c>
       <c r="G22" t="n">
-        <v>185.8622028041163</v>
+        <v>185.8622028041162</v>
       </c>
       <c r="H22" t="n">
-        <v>114.8417959448428</v>
+        <v>114.8417959448427</v>
       </c>
       <c r="I22" t="n">
         <v>73.26093014051206</v>
       </c>
       <c r="J22" t="n">
-        <v>136.4521322328771</v>
+        <v>136.4521322328772</v>
       </c>
       <c r="K22" t="n">
-        <v>317.5715902003348</v>
+        <v>317.5715902003349</v>
       </c>
       <c r="L22" t="n">
-        <v>582.0199464984426</v>
+        <v>582.0199464984427</v>
       </c>
       <c r="M22" t="n">
         <v>866.7914412281812</v>
@@ -5929,7 +5929,7 @@
         <v>1611.434385151338</v>
       </c>
       <c r="Q22" t="n">
-        <v>1695.379761743825</v>
+        <v>1695.379761743826</v>
       </c>
       <c r="R22" t="n">
         <v>1647.619298506316</v>
@@ -5938,7 +5938,7 @@
         <v>1523.290967447313</v>
       </c>
       <c r="T22" t="n">
-        <v>1380.962161991697</v>
+        <v>1380.962161991698</v>
       </c>
       <c r="U22" t="n">
         <v>1175.1708018326</v>
@@ -5947,13 +5947,13 @@
         <v>1003.847911248098</v>
       </c>
       <c r="W22" t="n">
-        <v>797.7923388325221</v>
+        <v>797.7923388325227</v>
       </c>
       <c r="X22" t="n">
-        <v>653.1643855558897</v>
+        <v>653.1643855558902</v>
       </c>
       <c r="Y22" t="n">
-        <v>649.818115230848</v>
+        <v>515.733404033745</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1870.326146065227</v>
+        <v>1870.326146065226</v>
       </c>
       <c r="C23" t="n">
-        <v>1584.7252267462</v>
+        <v>1584.725226746199</v>
       </c>
       <c r="D23" t="n">
         <v>1309.821125760834</v>
@@ -5975,10 +5975,10 @@
         <v>1007.394470783975</v>
       </c>
       <c r="F23" t="n">
-        <v>679.7701636157522</v>
+        <v>679.770163615752</v>
       </c>
       <c r="G23" t="n">
-        <v>346.0120445671065</v>
+        <v>346.0120445671064</v>
       </c>
       <c r="H23" t="n">
         <v>110.823473600238</v>
@@ -5987,10 +5987,10 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J23" t="n">
-        <v>259.2443315490725</v>
+        <v>259.2443315490727</v>
       </c>
       <c r="K23" t="n">
-        <v>658.7300432849239</v>
+        <v>658.7300432849242</v>
       </c>
       <c r="L23" t="n">
         <v>1206.604021178496</v>
@@ -6011,7 +6011,7 @@
         <v>3663.046507025603</v>
       </c>
       <c r="R23" t="n">
-        <v>3663.046507025604</v>
+        <v>3663.046507025603</v>
       </c>
       <c r="S23" t="n">
         <v>3589.465350462905</v>
@@ -6069,22 +6069,22 @@
         <v>190.3379902225956</v>
       </c>
       <c r="K24" t="n">
-        <v>446.9768397634861</v>
+        <v>517.0621767774533</v>
       </c>
       <c r="L24" t="n">
-        <v>947.7022251422515</v>
+        <v>1017.787562156219</v>
       </c>
       <c r="M24" t="n">
-        <v>1584.004353828942</v>
+        <v>1654.089690842909</v>
       </c>
       <c r="N24" t="n">
-        <v>1778.305569273233</v>
+        <v>2322.939856887318</v>
       </c>
       <c r="O24" t="n">
-        <v>2323.757122466407</v>
+        <v>2531.733637324898</v>
       </c>
       <c r="P24" t="n">
-        <v>2429.248873131361</v>
+        <v>2637.225387989852</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.824633197486</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>486.9797520609848</v>
+        <v>551.531248021993</v>
       </c>
       <c r="C25" t="n">
-        <v>401.4051667544627</v>
+        <v>465.956662715471</v>
       </c>
       <c r="D25" t="n">
-        <v>334.6501249635119</v>
+        <v>399.2016209245202</v>
       </c>
       <c r="E25" t="n">
-        <v>334.6501249635119</v>
+        <v>334.650124963512</v>
       </c>
       <c r="F25" t="n">
-        <v>271.1217750869864</v>
+        <v>271.1217750869865</v>
       </c>
       <c r="G25" t="n">
-        <v>185.8622028041163</v>
+        <v>185.8622028041162</v>
       </c>
       <c r="H25" t="n">
-        <v>114.8417959448428</v>
+        <v>114.8417959448427</v>
       </c>
       <c r="I25" t="n">
         <v>73.26093014051206</v>
       </c>
       <c r="J25" t="n">
-        <v>136.4521322328771</v>
+        <v>136.4521322328769</v>
       </c>
       <c r="K25" t="n">
-        <v>317.5715902003349</v>
+        <v>317.5715902003346</v>
       </c>
       <c r="L25" t="n">
-        <v>582.0199464984426</v>
+        <v>582.0199464984423</v>
       </c>
       <c r="M25" t="n">
-        <v>866.7914412281812</v>
+        <v>866.7914412281808</v>
       </c>
       <c r="N25" t="n">
         <v>1152.169030365656</v>
@@ -6172,25 +6172,25 @@
         <v>1647.619298506316</v>
       </c>
       <c r="S25" t="n">
-        <v>1523.290967447312</v>
+        <v>1523.290967447313</v>
       </c>
       <c r="T25" t="n">
         <v>1380.962161991697</v>
       </c>
       <c r="U25" t="n">
-        <v>1244.704017068695</v>
+        <v>1175.1708018326</v>
       </c>
       <c r="V25" t="n">
-        <v>1073.381126484193</v>
+        <v>1003.847911248098</v>
       </c>
       <c r="W25" t="n">
-        <v>867.3255540686173</v>
+        <v>931.8770500296254</v>
       </c>
       <c r="X25" t="n">
-        <v>722.6976007919848</v>
+        <v>787.249096752993</v>
       </c>
       <c r="Y25" t="n">
-        <v>585.2666192698396</v>
+        <v>649.8181152308478</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1870.326146065226</v>
+        <v>1870.326146065227</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.725226746199</v>
+        <v>1584.7252267462</v>
       </c>
       <c r="D26" t="n">
         <v>1309.821125760834</v>
       </c>
       <c r="E26" t="n">
-        <v>1007.394470783974</v>
+        <v>1007.394470783975</v>
       </c>
       <c r="F26" t="n">
-        <v>679.7701636157517</v>
+        <v>679.7701636157522</v>
       </c>
       <c r="G26" t="n">
-        <v>346.0120445671059</v>
+        <v>346.0120445671065</v>
       </c>
       <c r="H26" t="n">
         <v>110.823473600238</v>
@@ -6227,7 +6227,7 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K26" t="n">
-        <v>658.7300432849242</v>
+        <v>658.730043284924</v>
       </c>
       <c r="L26" t="n">
         <v>1206.604021178496</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>486.979752060985</v>
+        <v>465.2070000623993</v>
       </c>
       <c r="C28" t="n">
-        <v>401.4051667544629</v>
+        <v>379.6324147558772</v>
       </c>
       <c r="D28" t="n">
-        <v>334.6501249635121</v>
+        <v>312.8773729649263</v>
       </c>
       <c r="E28" t="n">
-        <v>334.6501249635121</v>
+        <v>248.3258770039181</v>
       </c>
       <c r="F28" t="n">
-        <v>271.1217750869866</v>
+        <v>184.7975271273919</v>
       </c>
       <c r="G28" t="n">
-        <v>185.8622028041163</v>
+        <v>184.7975271273919</v>
       </c>
       <c r="H28" t="n">
         <v>114.8417959448428</v>
@@ -6391,7 +6391,7 @@
         <v>582.0199464984424</v>
       </c>
       <c r="M28" t="n">
-        <v>866.7914412281809</v>
+        <v>866.7914412281812</v>
       </c>
       <c r="N28" t="n">
         <v>1152.169030365656</v>
@@ -6400,34 +6400,34 @@
         <v>1405.982160845303</v>
       </c>
       <c r="P28" t="n">
-        <v>1611.434385151337</v>
+        <v>1611.434385151338</v>
       </c>
       <c r="Q28" t="n">
         <v>1695.379761743825</v>
       </c>
       <c r="R28" t="n">
-        <v>1647.619298506315</v>
+        <v>1695.379761743825</v>
       </c>
       <c r="S28" t="n">
-        <v>1523.290967447312</v>
+        <v>1571.051430684822</v>
       </c>
       <c r="T28" t="n">
-        <v>1380.962161991697</v>
+        <v>1428.722625229207</v>
       </c>
       <c r="U28" t="n">
-        <v>1175.1708018326</v>
+        <v>1222.93126507011</v>
       </c>
       <c r="V28" t="n">
-        <v>1003.847911248098</v>
+        <v>1051.608374485608</v>
       </c>
       <c r="W28" t="n">
-        <v>867.3255540686175</v>
+        <v>845.5528020700319</v>
       </c>
       <c r="X28" t="n">
-        <v>722.6976007919851</v>
+        <v>700.9248487933994</v>
       </c>
       <c r="Y28" t="n">
-        <v>585.2666192698398</v>
+        <v>563.4938672712541</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1870.326146065225</v>
+        <v>1870.326146065226</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.725226746198</v>
+        <v>1584.725226746199</v>
       </c>
       <c r="D29" t="n">
         <v>1309.821125760833</v>
       </c>
       <c r="E29" t="n">
-        <v>1007.394470783973</v>
+        <v>1007.394470783974</v>
       </c>
       <c r="F29" t="n">
-        <v>679.7701636157507</v>
+        <v>679.7701636157511</v>
       </c>
       <c r="G29" t="n">
-        <v>346.012044567105</v>
+        <v>346.0120445671059</v>
       </c>
       <c r="H29" t="n">
-        <v>110.8234736002373</v>
+        <v>110.823473600238</v>
       </c>
       <c r="I29" t="n">
         <v>73.26093014051206</v>
@@ -6464,7 +6464,7 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K29" t="n">
-        <v>658.7300432849242</v>
+        <v>658.730043284924</v>
       </c>
       <c r="L29" t="n">
         <v>1206.604021178496</v>
@@ -6488,16 +6488,16 @@
         <v>3663.046507025603</v>
       </c>
       <c r="S29" t="n">
-        <v>3589.465350462904</v>
+        <v>3589.465350462905</v>
       </c>
       <c r="T29" t="n">
-        <v>3457.88729129898</v>
+        <v>3457.887291298981</v>
       </c>
       <c r="U29" t="n">
         <v>3287.554630872999</v>
       </c>
       <c r="V29" t="n">
-        <v>3039.853341150813</v>
+        <v>3039.853341150814</v>
       </c>
       <c r="W29" t="n">
         <v>2770.446283502084</v>
@@ -6506,7 +6506,7 @@
         <v>2480.342122862389</v>
       </c>
       <c r="Y29" t="n">
-        <v>2173.564388507962</v>
+        <v>2173.564388507963</v>
       </c>
     </row>
     <row r="30">
@@ -6543,16 +6543,16 @@
         <v>190.3379902225956</v>
       </c>
       <c r="K30" t="n">
-        <v>517.0621767774533</v>
+        <v>414.2053861442171</v>
       </c>
       <c r="L30" t="n">
-        <v>1017.787562156219</v>
+        <v>547.7988296725579</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.726212875404</v>
+        <v>1184.100958359249</v>
       </c>
       <c r="N30" t="n">
-        <v>1463.027428319695</v>
+        <v>1852.951124403657</v>
       </c>
       <c r="O30" t="n">
         <v>2008.478981512869</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>417.44653682489</v>
+        <v>551.5312480219932</v>
       </c>
       <c r="C31" t="n">
-        <v>331.871951518368</v>
+        <v>465.9566627154711</v>
       </c>
       <c r="D31" t="n">
-        <v>265.1169097274171</v>
+        <v>399.2016209245203</v>
       </c>
       <c r="E31" t="n">
-        <v>265.1169097274171</v>
+        <v>334.6501249635121</v>
       </c>
       <c r="F31" t="n">
-        <v>201.5885598508916</v>
+        <v>271.1217750869866</v>
       </c>
       <c r="G31" t="n">
         <v>185.8622028041163</v>
       </c>
       <c r="H31" t="n">
-        <v>114.8417959448428</v>
+        <v>114.8417959448427</v>
       </c>
       <c r="I31" t="n">
         <v>73.26093014051206</v>
@@ -6625,10 +6625,10 @@
         <v>317.5715902003349</v>
       </c>
       <c r="L31" t="n">
-        <v>582.0199464984424</v>
+        <v>582.0199464984426</v>
       </c>
       <c r="M31" t="n">
-        <v>866.791441228181</v>
+        <v>866.7914412281812</v>
       </c>
       <c r="N31" t="n">
         <v>1152.169030365656</v>
@@ -6643,10 +6643,10 @@
         <v>1695.379761743825</v>
       </c>
       <c r="R31" t="n">
-        <v>1647.619298506315</v>
+        <v>1647.619298506316</v>
       </c>
       <c r="S31" t="n">
-        <v>1523.290967447312</v>
+        <v>1523.290967447313</v>
       </c>
       <c r="T31" t="n">
         <v>1380.962161991697</v>
@@ -6658,13 +6658,13 @@
         <v>1003.847911248098</v>
       </c>
       <c r="W31" t="n">
-        <v>797.7923388325221</v>
+        <v>931.8770500296264</v>
       </c>
       <c r="X31" t="n">
-        <v>653.1643855558897</v>
+        <v>787.2490967529939</v>
       </c>
       <c r="Y31" t="n">
-        <v>515.7334040337448</v>
+        <v>649.818115230848</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1007.394470783975</v>
       </c>
       <c r="F32" t="n">
-        <v>679.7701636157522</v>
+        <v>679.770163615752</v>
       </c>
       <c r="G32" t="n">
-        <v>346.0120445671065</v>
+        <v>346.0120445671064</v>
       </c>
       <c r="H32" t="n">
         <v>110.823473600238</v>
@@ -6728,7 +6728,7 @@
         <v>3589.465350462905</v>
       </c>
       <c r="T32" t="n">
-        <v>3457.887291298981</v>
+        <v>3457.88729129898</v>
       </c>
       <c r="U32" t="n">
         <v>3287.554630873</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>417.4465368248896</v>
+        <v>465.9566627154713</v>
       </c>
       <c r="C34" t="n">
-        <v>399.2016209245203</v>
+        <v>465.9566627154713</v>
       </c>
       <c r="D34" t="n">
-        <v>399.2016209245203</v>
+        <v>399.2016209245205</v>
       </c>
       <c r="E34" t="n">
-        <v>334.6501249635121</v>
+        <v>334.6501249635122</v>
       </c>
       <c r="F34" t="n">
-        <v>271.1217750869866</v>
+        <v>271.1217750869868</v>
       </c>
       <c r="G34" t="n">
-        <v>185.8622028041163</v>
+        <v>185.8622028041164</v>
       </c>
       <c r="H34" t="n">
         <v>114.8417959448428</v>
@@ -6856,16 +6856,16 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J34" t="n">
-        <v>136.4521322328771</v>
+        <v>136.452132232877</v>
       </c>
       <c r="K34" t="n">
-        <v>317.5715902003348</v>
+        <v>317.5715902003346</v>
       </c>
       <c r="L34" t="n">
-        <v>582.0199464984424</v>
+        <v>582.0199464984423</v>
       </c>
       <c r="M34" t="n">
-        <v>866.7914412281809</v>
+        <v>866.7914412281807</v>
       </c>
       <c r="N34" t="n">
         <v>1152.169030365656</v>
@@ -6874,13 +6874,13 @@
         <v>1405.982160845303</v>
       </c>
       <c r="P34" t="n">
-        <v>1611.434385151338</v>
+        <v>1611.434385151337</v>
       </c>
       <c r="Q34" t="n">
         <v>1695.379761743825</v>
       </c>
       <c r="R34" t="n">
-        <v>1647.619298506316</v>
+        <v>1647.619298506315</v>
       </c>
       <c r="S34" t="n">
         <v>1523.290967447312</v>
@@ -6895,13 +6895,13 @@
         <v>1003.847911248098</v>
       </c>
       <c r="W34" t="n">
-        <v>797.7923388325219</v>
+        <v>846.3024647231039</v>
       </c>
       <c r="X34" t="n">
-        <v>653.1643855558893</v>
+        <v>701.6745114464713</v>
       </c>
       <c r="Y34" t="n">
-        <v>515.7334040337445</v>
+        <v>564.2435299243261</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1830.9569563409</v>
       </c>
       <c r="C35" t="n">
-        <v>1550.980206982492</v>
+        <v>1550.980206982491</v>
       </c>
       <c r="D35" t="n">
         <v>1281.700275957744</v>
       </c>
       <c r="E35" t="n">
-        <v>984.8977909415028</v>
+        <v>984.8977909415024</v>
       </c>
       <c r="F35" t="n">
-        <v>662.8976537338981</v>
+        <v>662.8976537338979</v>
       </c>
       <c r="G35" t="n">
-        <v>334.7637046458705</v>
+        <v>334.7637046458703</v>
       </c>
       <c r="H35" t="n">
-        <v>105.19930363962</v>
+        <v>105.1993036396199</v>
       </c>
       <c r="I35" t="n">
         <v>73.26093014051206</v>
@@ -6938,7 +6938,7 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K35" t="n">
-        <v>658.7300432849242</v>
+        <v>658.730043284924</v>
       </c>
       <c r="L35" t="n">
         <v>1206.604021178496</v>
@@ -6968,19 +6968,19 @@
         <v>3467.129600152425</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.064591345584</v>
+        <v>3220.064591345583</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.987471584016</v>
+        <v>2977.987471584015</v>
       </c>
       <c r="W35" t="n">
-        <v>2714.204583895905</v>
+        <v>2714.204583895904</v>
       </c>
       <c r="X35" t="n">
-        <v>2429.724593216828</v>
+        <v>2429.724593216827</v>
       </c>
       <c r="Y35" t="n">
-        <v>2128.571028823019</v>
+        <v>2128.571028823018</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7023,10 @@
         <v>1017.787562156219</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.726212875404</v>
+        <v>1654.089690842909</v>
       </c>
       <c r="N36" t="n">
-        <v>1463.027428319695</v>
+        <v>1848.3909062872</v>
       </c>
       <c r="O36" t="n">
         <v>2008.478981512869</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>512.1620582976661</v>
+        <v>512.1620582976667</v>
       </c>
       <c r="C37" t="n">
-        <v>432.2116429517621</v>
+        <v>432.2116429517628</v>
       </c>
       <c r="D37" t="n">
-        <v>371.0807711214293</v>
+        <v>371.0807711214301</v>
       </c>
       <c r="E37" t="n">
         <v>312.15344512104</v>
@@ -7084,7 +7084,7 @@
         <v>254.2492652051326</v>
       </c>
       <c r="G37" t="n">
-        <v>174.6138628828802</v>
+        <v>174.6138628828801</v>
       </c>
       <c r="H37" t="n">
         <v>109.2176259842247</v>
@@ -7093,52 +7093,52 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J37" t="n">
-        <v>141.9643812112789</v>
+        <v>141.964381211279</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5960881571383</v>
+        <v>328.5960881571384</v>
       </c>
       <c r="L37" t="n">
-        <v>598.5566934336476</v>
+        <v>598.5566934336482</v>
       </c>
       <c r="M37" t="n">
-        <v>888.840437141788</v>
+        <v>888.8404371417885</v>
       </c>
       <c r="N37" t="n">
         <v>1179.730275257665</v>
       </c>
       <c r="O37" t="n">
-        <v>1439.055654715713</v>
+        <v>1439.055654715714</v>
       </c>
       <c r="P37" t="n">
-        <v>1650.02012800015</v>
+        <v>1650.020128000151</v>
       </c>
       <c r="Q37" t="n">
-        <v>1739.477753571039</v>
+        <v>1739.47775357104</v>
       </c>
       <c r="R37" t="n">
         <v>1697.341460294148</v>
       </c>
       <c r="S37" t="n">
-        <v>1578.637299195762</v>
+        <v>1578.637299195763</v>
       </c>
       <c r="T37" t="n">
-        <v>1441.932663700765</v>
+        <v>1441.932663700766</v>
       </c>
       <c r="U37" t="n">
-        <v>1241.765473502286</v>
+        <v>1241.765473502287</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.066752878402</v>
+        <v>1076.066752878403</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6353504234443</v>
+        <v>875.6353504234451</v>
       </c>
       <c r="X37" t="n">
-        <v>736.6315671074299</v>
+        <v>736.6315671074307</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.8247555459029</v>
+        <v>604.8247555459034</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1830.9569563409</v>
       </c>
       <c r="C38" t="n">
-        <v>1550.980206982492</v>
+        <v>1550.980206982491</v>
       </c>
       <c r="D38" t="n">
         <v>1281.700275957744</v>
       </c>
       <c r="E38" t="n">
-        <v>984.8977909415028</v>
+        <v>984.8977909415025</v>
       </c>
       <c r="F38" t="n">
-        <v>662.8976537338981</v>
+        <v>662.8976537338979</v>
       </c>
       <c r="G38" t="n">
-        <v>334.7637046458705</v>
+        <v>334.7637046458703</v>
       </c>
       <c r="H38" t="n">
-        <v>105.19930363962</v>
+        <v>105.1993036396199</v>
       </c>
       <c r="I38" t="n">
         <v>73.26093014051206</v>
@@ -7199,19 +7199,19 @@
         <v>3661.040475957811</v>
       </c>
       <c r="S38" t="n">
-        <v>3510.726971014253</v>
+        <v>3593.083489355731</v>
       </c>
       <c r="T38" t="n">
-        <v>3384.773081810947</v>
+        <v>3384.773081810946</v>
       </c>
       <c r="U38" t="n">
-        <v>3220.064591345584</v>
+        <v>3220.064591345583</v>
       </c>
       <c r="V38" t="n">
         <v>2977.987471584016</v>
       </c>
       <c r="W38" t="n">
-        <v>2714.204583895905</v>
+        <v>2714.204583895904</v>
       </c>
       <c r="X38" t="n">
         <v>2429.724593216828</v>
@@ -7257,19 +7257,19 @@
         <v>517.0621767774533</v>
       </c>
       <c r="L39" t="n">
-        <v>1017.787562156219</v>
+        <v>650.6556203057939</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.726212875404</v>
+        <v>1286.957748992485</v>
       </c>
       <c r="N39" t="n">
-        <v>1463.027428319695</v>
+        <v>1955.807915036893</v>
       </c>
       <c r="O39" t="n">
-        <v>2008.478981512869</v>
+        <v>2501.259468230067</v>
       </c>
       <c r="P39" t="n">
-        <v>2429.248873131361</v>
+        <v>2637.225387989852</v>
       </c>
       <c r="Q39" t="n">
         <v>2657.824633197486</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>512.1620582976666</v>
+        <v>512.1620582976669</v>
       </c>
       <c r="C40" t="n">
-        <v>432.2116429517627</v>
+        <v>432.211642951763</v>
       </c>
       <c r="D40" t="n">
-        <v>371.0807711214298</v>
+        <v>371.0807711214302</v>
       </c>
       <c r="E40" t="n">
-        <v>312.1534451210396</v>
+        <v>312.1534451210401</v>
       </c>
       <c r="F40" t="n">
-        <v>254.2492652051322</v>
+        <v>254.2492652051327</v>
       </c>
       <c r="G40" t="n">
-        <v>174.6138628828799</v>
+        <v>174.6138628828804</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2176259842247</v>
+        <v>109.2176259842249</v>
       </c>
       <c r="I40" t="n">
         <v>73.26093014051206</v>
       </c>
       <c r="J40" t="n">
-        <v>141.964381211279</v>
+        <v>141.9643812112788</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5960881571385</v>
+        <v>328.5960881571383</v>
       </c>
       <c r="L40" t="n">
         <v>598.5566934336478</v>
       </c>
       <c r="M40" t="n">
-        <v>888.8404371417881</v>
+        <v>888.8404371417882</v>
       </c>
       <c r="N40" t="n">
         <v>1179.730275257665</v>
@@ -7369,13 +7369,13 @@
         <v>1076.066752878403</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6353504234449</v>
+        <v>875.6353504234453</v>
       </c>
       <c r="X40" t="n">
-        <v>736.6315671074306</v>
+        <v>736.6315671074309</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.8247555459033</v>
+        <v>604.8247555459037</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>679.7701636157522</v>
       </c>
       <c r="G41" t="n">
-        <v>346.0120445671064</v>
+        <v>346.0120445671065</v>
       </c>
       <c r="H41" t="n">
         <v>110.823473600238</v>
@@ -7412,7 +7412,7 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K41" t="n">
-        <v>658.730043284924</v>
+        <v>658.7300432849242</v>
       </c>
       <c r="L41" t="n">
         <v>1206.604021178496</v>
@@ -7491,19 +7491,19 @@
         <v>190.3379902225956</v>
       </c>
       <c r="K42" t="n">
-        <v>433.4759022758681</v>
+        <v>517.0621767774533</v>
       </c>
       <c r="L42" t="n">
-        <v>934.2012876546335</v>
+        <v>1017.787562156219</v>
       </c>
       <c r="M42" t="n">
-        <v>1109.455403228824</v>
+        <v>1654.089690842909</v>
       </c>
       <c r="N42" t="n">
-        <v>1778.305569273233</v>
+        <v>1852.951124403657</v>
       </c>
       <c r="O42" t="n">
-        <v>2323.757122466407</v>
+        <v>2008.478981512869</v>
       </c>
       <c r="P42" t="n">
         <v>2429.248873131361</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.531248021993</v>
+        <v>551.5312480219932</v>
       </c>
       <c r="C43" t="n">
         <v>465.9566627154711</v>
@@ -7558,25 +7558,25 @@
         <v>271.1217750869866</v>
       </c>
       <c r="G43" t="n">
-        <v>185.8622028041163</v>
+        <v>185.8622028041162</v>
       </c>
       <c r="H43" t="n">
-        <v>114.8417959448428</v>
+        <v>114.8417959448427</v>
       </c>
       <c r="I43" t="n">
-        <v>73.26093014051206</v>
+        <v>73.26093014051207</v>
       </c>
       <c r="J43" t="n">
-        <v>136.4521322328772</v>
+        <v>136.4521322328769</v>
       </c>
       <c r="K43" t="n">
-        <v>317.5715902003349</v>
+        <v>317.5715902003346</v>
       </c>
       <c r="L43" t="n">
-        <v>582.0199464984426</v>
+        <v>582.0199464984423</v>
       </c>
       <c r="M43" t="n">
-        <v>866.7914412281812</v>
+        <v>866.7914412281809</v>
       </c>
       <c r="N43" t="n">
         <v>1152.169030365656</v>
@@ -7606,13 +7606,13 @@
         <v>1003.847911248098</v>
       </c>
       <c r="W43" t="n">
-        <v>797.7923388325233</v>
+        <v>797.7923388325222</v>
       </c>
       <c r="X43" t="n">
-        <v>653.1643855558909</v>
+        <v>787.2490967529932</v>
       </c>
       <c r="Y43" t="n">
-        <v>649.8181152308478</v>
+        <v>649.818115230848</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1007.394470783974</v>
       </c>
       <c r="F44" t="n">
-        <v>679.7701636157517</v>
+        <v>679.7701636157516</v>
       </c>
       <c r="G44" t="n">
-        <v>346.0120445671065</v>
+        <v>346.0120445671059</v>
       </c>
       <c r="H44" t="n">
         <v>110.823473600238</v>
@@ -7649,7 +7649,7 @@
         <v>259.2443315490727</v>
       </c>
       <c r="K44" t="n">
-        <v>658.7300432849242</v>
+        <v>658.730043284924</v>
       </c>
       <c r="L44" t="n">
         <v>1206.604021178496</v>
@@ -7676,7 +7676,7 @@
         <v>3589.465350462905</v>
       </c>
       <c r="T44" t="n">
-        <v>3457.887291298981</v>
+        <v>3457.88729129898</v>
       </c>
       <c r="U44" t="n">
         <v>3287.554630873</v>
@@ -7685,7 +7685,7 @@
         <v>3039.853341150814</v>
       </c>
       <c r="W44" t="n">
-        <v>2770.446283502085</v>
+        <v>2770.446283502084</v>
       </c>
       <c r="X44" t="n">
         <v>2480.34212286239</v>
@@ -7728,19 +7728,19 @@
         <v>190.3379902225956</v>
       </c>
       <c r="K45" t="n">
-        <v>446.9768397634861</v>
+        <v>255.2415921350005</v>
       </c>
       <c r="L45" t="n">
-        <v>947.7022251422515</v>
+        <v>755.9669775137659</v>
       </c>
       <c r="M45" t="n">
-        <v>1584.004353828942</v>
+        <v>1392.269106200456</v>
       </c>
       <c r="N45" t="n">
-        <v>1778.305569273233</v>
+        <v>2061.119272244865</v>
       </c>
       <c r="O45" t="n">
-        <v>2323.757122466407</v>
+        <v>2216.647129354077</v>
       </c>
       <c r="P45" t="n">
         <v>2429.248873131361</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>488.0028981454677</v>
+        <v>515.7334040337444</v>
       </c>
       <c r="C46" t="n">
-        <v>402.4283128389457</v>
+        <v>465.9566627154712</v>
       </c>
       <c r="D46" t="n">
-        <v>335.6732710479949</v>
+        <v>399.2016209245204</v>
       </c>
       <c r="E46" t="n">
-        <v>271.1217750869866</v>
+        <v>334.6501249635122</v>
       </c>
       <c r="F46" t="n">
         <v>271.1217750869866</v>
@@ -7804,13 +7804,13 @@
         <v>73.26093014051206</v>
       </c>
       <c r="J46" t="n">
-        <v>136.4521322328771</v>
+        <v>136.4521322328772</v>
       </c>
       <c r="K46" t="n">
         <v>317.5715902003348</v>
       </c>
       <c r="L46" t="n">
-        <v>582.0199464984424</v>
+        <v>582.0199464984426</v>
       </c>
       <c r="M46" t="n">
         <v>866.7914412281812</v>
@@ -7843,13 +7843,13 @@
         <v>1003.847911248098</v>
       </c>
       <c r="W46" t="n">
-        <v>868.3487001531005</v>
+        <v>797.7923388325221</v>
       </c>
       <c r="X46" t="n">
-        <v>723.720746876468</v>
+        <v>653.1643855558896</v>
       </c>
       <c r="Y46" t="n">
-        <v>586.2897653543225</v>
+        <v>515.7334040337444</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.831378691839674</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>95.04411400588765</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>125.6467074312176</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9012,10 +9012,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>286.5263131348343</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>76.4490253989845</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.831378691839646</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>214.5670205255574</v>
       </c>
       <c r="P18" t="n">
-        <v>42.6665373423655</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627456</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>7.831378691839646</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>203.5461430459818</v>
+        <v>4.606280925714202</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.6719673015006</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>53.80396295794708</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>160.5694888981986</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>76.44902539898473</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>76.44902539898473</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>4.606280925714202</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>76.44902539898473</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>30.78198898467718</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>180.0346567079471</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>4.606280925714202</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627456</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>193.6719673015006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,13 +11385,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>108.1919122346767</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.880909181632</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>189.5543566712979</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>326.0050651712552</v>
       </c>
       <c r="X11" t="n">
-        <v>346.4951971323113</v>
+        <v>346.4951971323112</v>
       </c>
       <c r="Y11" t="n">
-        <v>353.3316176815908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.5960766357795</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>144.01091755247</v>
       </c>
       <c r="D13" t="n">
-        <v>125.3795694720546</v>
+        <v>125.3795694720545</v>
       </c>
       <c r="E13" t="n">
-        <v>123.1980591004114</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>143.699054659055</v>
+        <v>143.6990546590549</v>
       </c>
       <c r="H13" t="n">
-        <v>129.6022808896941</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>100.4571352453007</v>
+        <v>100.4571352453006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>106.5749367041478</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>158.5699634609823</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>200.1975955000724</v>
+        <v>200.1975955000723</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>251.7236009797476</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>228.9017397776702</v>
       </c>
       <c r="W13" t="n">
-        <v>263.2870947904332</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>265.8052700544613</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>292.128763356213</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.1374230960848</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>121.2802553906122</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>304.5163549239771</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.5960766357796</v>
+        <v>156.5960766357795</v>
       </c>
       <c r="C16" t="n">
-        <v>3.153725611590532</v>
+        <v>144.0109175524701</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>35.21899438223004</v>
       </c>
       <c r="E16" t="n">
         <v>123.1980591004114</v>
       </c>
       <c r="F16" t="n">
-        <v>122.1851444767735</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>143.699054659055</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>129.6022808896941</v>
+        <v>129.602280889694</v>
       </c>
       <c r="I16" t="n">
-        <v>100.4571352453007</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>106.5749367041478</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>263.0255246565197</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>228.9017397776702</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>263.2870947904332</v>
       </c>
       <c r="X16" t="n">
         <v>202.4737518428794</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.348749805937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>62.89306637776015</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>69.85079770737035</v>
+        <v>132.7438640851321</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>66.65637271209036</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.08749137304127</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.7438640851331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.90598100139815</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>68.83788308373424</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>132.743864085132</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>63.90598100139815</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.40697656004167</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.054028919957148</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.28285860513449</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>68.8378830837347</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.90598100139815</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.8378830837341</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>132.7438640851331</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>66.65637271209123</v>
+        <v>84.71883945345681</v>
       </c>
       <c r="D34" t="n">
-        <v>66.08749137304133</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>48.02502463167562</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>132.7438640851324</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.743864085131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.30399853676627</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>35.43986554836652</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.89306637776022</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>69.85079770737249</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>907546.9469530343</v>
+        <v>907546.9469530345</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>907546.9469530341</v>
+        <v>907546.946953034</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321416</v>
@@ -26320,37 +26320,37 @@
         <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>356567.7410314935</v>
+        <v>356567.7410314936</v>
       </c>
       <c r="F2" t="n">
-        <v>356567.7410314939</v>
+        <v>356567.7410314937</v>
       </c>
       <c r="G2" t="n">
+        <v>408927.95856312</v>
+      </c>
+      <c r="H2" t="n">
+        <v>408927.95856312</v>
+      </c>
+      <c r="I2" t="n">
         <v>408927.9585631199</v>
-      </c>
-      <c r="H2" t="n">
-        <v>408927.9585631202</v>
-      </c>
-      <c r="I2" t="n">
-        <v>408927.9585631201</v>
       </c>
       <c r="J2" t="n">
         <v>408927.9585631201</v>
       </c>
       <c r="K2" t="n">
+        <v>408927.95856312</v>
+      </c>
+      <c r="L2" t="n">
         <v>408927.9585631201</v>
       </c>
-      <c r="L2" t="n">
-        <v>408927.9585631202</v>
-      </c>
       <c r="M2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="O2" t="n">
-        <v>408927.9585631201</v>
+        <v>408927.95856312</v>
       </c>
       <c r="P2" t="n">
         <v>408927.95856312</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690535.6545539239</v>
+        <v>690535.654553924</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47433.66247921068</v>
+        <v>47433.66247921064</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>81648.66543603246</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>47433.66247921068</v>
+        <v>47433.66247921063</v>
       </c>
       <c r="M3" t="n">
-        <v>172604.0781975434</v>
+        <v>172604.0781975435</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14134.38022811675</v>
+        <v>14134.38022811674</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>295860.2172754402</v>
       </c>
       <c r="E4" t="n">
-        <v>40332.97268283564</v>
+        <v>40332.97268283574</v>
       </c>
       <c r="F4" t="n">
-        <v>40332.97268283564</v>
+        <v>40332.97268283567</v>
       </c>
       <c r="G4" t="n">
         <v>100250.3286583815</v>
       </c>
       <c r="H4" t="n">
-        <v>100250.3286583814</v>
+        <v>100250.3286583815</v>
       </c>
       <c r="I4" t="n">
         <v>100250.3286583815</v>
@@ -26448,13 +26448,13 @@
         <v>100250.3286583814</v>
       </c>
       <c r="M4" t="n">
-        <v>102082.454536895</v>
+        <v>102082.4545368951</v>
       </c>
       <c r="N4" t="n">
         <v>102082.4545368951</v>
       </c>
       <c r="O4" t="n">
-        <v>100250.3286583815</v>
+        <v>100250.3286583814</v>
       </c>
       <c r="P4" t="n">
         <v>100250.3286583814</v>
@@ -26476,10 +26476,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70398.06180552579</v>
+        <v>70398.06180552581</v>
       </c>
       <c r="F5" t="n">
-        <v>70398.06180552579</v>
+        <v>70398.06180552581</v>
       </c>
       <c r="G5" t="n">
         <v>75382.68751923175</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14390.03263860812</v>
+        <v>-14390.03263860801</v>
       </c>
       <c r="C6" t="n">
-        <v>66379.39889293967</v>
+        <v>66379.39889293973</v>
       </c>
       <c r="D6" t="n">
-        <v>66379.39889293956</v>
+        <v>66379.39889293961</v>
       </c>
       <c r="E6" t="n">
-        <v>-444698.9480107918</v>
+        <v>-444968.7137302951</v>
       </c>
       <c r="F6" t="n">
-        <v>245836.7065431324</v>
+        <v>245566.9408236291</v>
       </c>
       <c r="G6" t="n">
-        <v>185861.2799062959</v>
+        <v>185853.3152744511</v>
       </c>
       <c r="H6" t="n">
-        <v>233294.9423855071</v>
+        <v>233286.9777536617</v>
       </c>
       <c r="I6" t="n">
-        <v>233294.9423855069</v>
+        <v>233286.9777536616</v>
       </c>
       <c r="J6" t="n">
-        <v>151646.2769494745</v>
+        <v>151638.3123176294</v>
       </c>
       <c r="K6" t="n">
-        <v>233294.9423855069</v>
+        <v>233286.9777536617</v>
       </c>
       <c r="L6" t="n">
-        <v>185861.2799062963</v>
+        <v>185853.3152744512</v>
       </c>
       <c r="M6" t="n">
-        <v>59983.57451749651</v>
+        <v>59983.57451749634</v>
       </c>
       <c r="N6" t="n">
-        <v>232587.6527150398</v>
+        <v>232587.6527150397</v>
       </c>
       <c r="O6" t="n">
-        <v>219160.5621573901</v>
+        <v>219152.597525545</v>
       </c>
       <c r="P6" t="n">
-        <v>233294.9423855069</v>
+        <v>233286.9777536618</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="F2" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="G2" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="H2" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="I2" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="J2" t="n">
         <v>82.52798164517102</v>
       </c>
       <c r="K2" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="L2" t="n">
         <v>82.52798164517102</v>
       </c>
       <c r="M2" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="N2" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="O2" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="P2" t="n">
         <v>82.52798164517102</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.6117304364543</v>
+        <v>585.6117304364544</v>
       </c>
       <c r="F3" t="n">
-        <v>585.6117304364543</v>
+        <v>585.6117304364545</v>
       </c>
       <c r="G3" t="n">
         <v>585.6117304364544</v>
@@ -26796,19 +26796,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.7616267564007</v>
+        <v>915.7616267564008</v>
       </c>
       <c r="F4" t="n">
-        <v>915.7616267564007</v>
+        <v>915.7616267564008</v>
       </c>
       <c r="G4" t="n">
-        <v>915.7616267564007</v>
+        <v>915.7616267564008</v>
       </c>
       <c r="H4" t="n">
         <v>915.7616267564008</v>
       </c>
       <c r="I4" t="n">
-        <v>915.7616267564007</v>
+        <v>915.7616267564008</v>
       </c>
       <c r="J4" t="n">
         <v>915.7616267564008</v>
@@ -26820,7 +26820,7 @@
         <v>915.7616267564008</v>
       </c>
       <c r="M4" t="n">
-        <v>915.7616267564008</v>
+        <v>915.7616267564007</v>
       </c>
       <c r="N4" t="n">
         <v>915.7616267564007</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.29207809901335</v>
+        <v>59.2920780990133</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615779</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.29207809901335</v>
+        <v>59.29207809901329</v>
       </c>
       <c r="M2" t="n">
-        <v>5.567928261011787</v>
+        <v>5.567928261011929</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>17.66797528514594</v>
+        <v>17.66797528514592</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.6117304364543</v>
+        <v>585.6117304364544</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.7473378787416</v>
+        <v>674.7473378787417</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.29207809901335</v>
+        <v>59.2920780990133</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615779</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.7473378787416</v>
+        <v>674.7473378787417</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>118.5910057342293</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.1748174901256</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,16 +27506,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>90.7462043320333</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27561,7 +27561,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>69.0973563527908</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>231.8333861825618</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>296.3828211842395</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,22 +27692,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>58.43030076421377</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.9855022116127</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>331.6726583795839</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>381.7025041237114</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27907,10 +27907,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,22 +27932,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>106.4679160861171</v>
       </c>
       <c r="H9" t="n">
-        <v>29.16727427911236</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27989,13 +27989,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="C11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="D11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="E11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="F11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="G11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="H11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="I11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98597075711379</v>
+        <v>1.985970757113762</v>
       </c>
       <c r="S11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="T11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="U11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="V11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="W11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="X11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="C13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="D13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="E13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="F13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="G13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="H13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="I13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="J13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="K13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="L13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="M13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="N13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="O13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="P13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="R13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="S13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="T13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="U13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="V13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="W13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="X13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
       <c r="Y13" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615784</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="C14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="D14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="E14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="F14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="G14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="H14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="I14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98597075711379</v>
+        <v>1.985970757113733</v>
       </c>
       <c r="S14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="T14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="U14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="V14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="W14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="X14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="C16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="D16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="E16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="F16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="G16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="H16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="I16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="J16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="K16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="L16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="M16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="N16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="O16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="P16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="R16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="S16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="T16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="U16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="V16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="W16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="X16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
       <c r="Y16" t="n">
-        <v>23.23590354615774</v>
+        <v>23.23590354615778</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="C17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="D17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="E17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="F17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="G17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="H17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="I17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>1.985970757113762</v>
       </c>
       <c r="S17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="T17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="U17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="V17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="W17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="X17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="C19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="D19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="E19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="F19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="G19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="H19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="I19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="J19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="K19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="L19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="M19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="N19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="O19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="P19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="R19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="S19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="T19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="U19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="V19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="W19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="X19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.5279816451711</v>
+        <v>82.52798164517108</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="C20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="D20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="E20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="F20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="G20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="H20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="I20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.985970757113762</v>
       </c>
       <c r="S20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="T20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="U20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="V20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="W20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="X20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="C22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="D22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="E22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="F22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="G22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="H22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="I22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="J22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="K22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="L22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="M22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="N22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="O22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="P22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="R22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="S22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="T22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="U22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="V22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="W22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="X22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517108</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="C23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="D23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="E23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="F23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="G23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="H23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="I23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.985970757114662</v>
+        <v>1.985970757113762</v>
       </c>
       <c r="S23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="T23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="U23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="V23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="W23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="X23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="C25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="D25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="E25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="F25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="G25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="H25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="I25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="J25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="K25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="L25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="M25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="N25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="O25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="P25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="R25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="S25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="T25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="U25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="V25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="W25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="X25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517107</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="C29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="D29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="E29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="F29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="G29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="H29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="I29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.985970757113762</v>
       </c>
       <c r="S29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="T29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="U29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="V29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="W29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="X29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="C31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="D31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="E31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="F31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="G31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="H31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="I31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="J31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="K31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="L31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="M31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="N31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="O31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="P31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="R31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="S31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="T31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="U31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="V31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="W31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="X31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.52798164517102</v>
+        <v>82.52798164517104</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="C35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="D35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="E35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="F35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="G35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="H35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="I35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="T35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="U35" t="n">
-        <v>6.562956748119092</v>
+        <v>6.562956748118211</v>
       </c>
       <c r="V35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="W35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="X35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="C37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="D37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="E37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="F37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="G37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="H37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="I37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="J37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="K37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="L37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="M37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="N37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="O37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="P37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="R37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="S37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="T37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="U37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="V37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="W37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="X37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618295</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="C38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="D38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="E38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="F38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="G38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="H38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="I38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>6.562956748119888</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="T38" t="n">
-        <v>88.09590990618288</v>
+        <v>6.562956748118978</v>
       </c>
       <c r="U38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="V38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="W38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="X38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="C40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="D40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="E40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="F40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="G40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="H40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="I40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="J40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="K40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="L40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="M40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="N40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="O40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="P40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="R40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="S40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="T40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="U40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="V40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="W40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="X40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
       <c r="Y40" t="n">
-        <v>88.09590990618288</v>
+        <v>88.09590990618292</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="C41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="D41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="E41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="F41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="G41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="H41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="I41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>1.985970757113762</v>
       </c>
       <c r="S41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="T41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="U41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="V41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="W41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="X41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="C43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="D43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="E43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="F43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="G43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="H43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="I43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="J43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="K43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="L43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="M43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="N43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="O43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="P43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="R43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="S43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="T43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="U43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="V43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="W43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="X43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.52798164517108</v>
+        <v>82.52798164517105</v>
       </c>
     </row>
     <row r="44">
@@ -31753,10 +31753,10 @@
         <v>2.35421801180484</v>
       </c>
       <c r="H11" t="n">
-        <v>24.11013521339632</v>
+        <v>24.11013521339633</v>
       </c>
       <c r="I11" t="n">
-        <v>90.76098990010617</v>
+        <v>90.76098990010618</v>
       </c>
       <c r="J11" t="n">
         <v>199.8113109794212</v>
@@ -31768,16 +31768,16 @@
         <v>371.5132588978926</v>
       </c>
       <c r="M11" t="n">
-        <v>413.3800834653268</v>
+        <v>413.3800834653269</v>
       </c>
       <c r="N11" t="n">
-        <v>420.0690053913674</v>
+        <v>420.0690053913675</v>
       </c>
       <c r="O11" t="n">
-        <v>396.659250036483</v>
+        <v>396.6592500364831</v>
       </c>
       <c r="P11" t="n">
-        <v>338.5394928700509</v>
+        <v>338.539492870051</v>
       </c>
       <c r="Q11" t="n">
         <v>254.2290603222901</v>
@@ -31786,13 +31786,13 @@
         <v>147.8831471840359</v>
       </c>
       <c r="S11" t="n">
-        <v>53.64674294400284</v>
+        <v>53.64674294400285</v>
       </c>
       <c r="T11" t="n">
         <v>10.30558934667569</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1883374409443871</v>
+        <v>0.1883374409443872</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,7 +31832,7 @@
         <v>1.259617684335015</v>
       </c>
       <c r="H12" t="n">
-        <v>12.16525500397238</v>
+        <v>12.16525500397239</v>
       </c>
       <c r="I12" t="n">
         <v>43.36841588609592</v>
@@ -31850,7 +31850,7 @@
         <v>319.1583930878676</v>
       </c>
       <c r="N12" t="n">
-        <v>327.6055660674651</v>
+        <v>327.6055660674652</v>
       </c>
       <c r="O12" t="n">
         <v>299.6950900093051</v>
@@ -31862,7 +31862,7 @@
         <v>160.7890924775714</v>
       </c>
       <c r="R12" t="n">
-        <v>78.20678920809858</v>
+        <v>78.20678920809861</v>
       </c>
       <c r="S12" t="n">
         <v>23.39684602262625</v>
@@ -31871,7 +31871,7 @@
         <v>5.07714321010473</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08286958449572471</v>
+        <v>0.08286958449572472</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.056021153246065</v>
       </c>
       <c r="H13" t="n">
-        <v>9.388988071587749</v>
+        <v>9.38898807158775</v>
       </c>
       <c r="I13" t="n">
         <v>31.75743613579986</v>
       </c>
       <c r="J13" t="n">
-        <v>74.6606955344968</v>
+        <v>74.66069553449681</v>
       </c>
       <c r="K13" t="n">
         <v>122.6904576225883</v>
@@ -31932,13 +31932,13 @@
         <v>161.6000370235548</v>
       </c>
       <c r="O13" t="n">
-        <v>149.2637899151802</v>
+        <v>149.2637899151803</v>
       </c>
       <c r="P13" t="n">
         <v>127.7209583889604</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.42737129590459</v>
+        <v>88.42737129590462</v>
       </c>
       <c r="R13" t="n">
         <v>47.48255112686397</v>
@@ -31947,7 +31947,7 @@
         <v>18.40356864338824</v>
       </c>
       <c r="T13" t="n">
-        <v>4.512090382051368</v>
+        <v>4.512090382051369</v>
       </c>
       <c r="U13" t="n">
         <v>0.0576011538134218</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.35421801180484</v>
+        <v>2.354218011804841</v>
       </c>
       <c r="H14" t="n">
-        <v>24.11013521339632</v>
+        <v>24.11013521339633</v>
       </c>
       <c r="I14" t="n">
-        <v>90.76098990010617</v>
+        <v>90.76098990010621</v>
       </c>
       <c r="J14" t="n">
-        <v>199.8113109794212</v>
+        <v>199.8113109794213</v>
       </c>
       <c r="K14" t="n">
-        <v>299.4653594191201</v>
+        <v>299.4653594191202</v>
       </c>
       <c r="L14" t="n">
-        <v>371.5132588978926</v>
+        <v>371.5132588978927</v>
       </c>
       <c r="M14" t="n">
-        <v>413.3800834653268</v>
+        <v>413.380083465327</v>
       </c>
       <c r="N14" t="n">
-        <v>420.0690053913674</v>
+        <v>420.0690053913676</v>
       </c>
       <c r="O14" t="n">
-        <v>396.659250036483</v>
+        <v>396.6592500364831</v>
       </c>
       <c r="P14" t="n">
-        <v>338.5394928700509</v>
+        <v>338.5394928700511</v>
       </c>
       <c r="Q14" t="n">
-        <v>254.2290603222901</v>
+        <v>254.2290603222902</v>
       </c>
       <c r="R14" t="n">
         <v>147.8831471840359</v>
       </c>
       <c r="S14" t="n">
-        <v>53.64674294400284</v>
+        <v>53.64674294400286</v>
       </c>
       <c r="T14" t="n">
-        <v>10.30558934667569</v>
+        <v>10.3055893466757</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1883374409443871</v>
+        <v>0.1883374409443872</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.259617684335015</v>
+        <v>1.259617684335016</v>
       </c>
       <c r="H15" t="n">
-        <v>12.16525500397238</v>
+        <v>12.16525500397239</v>
       </c>
       <c r="I15" t="n">
-        <v>43.36841588609592</v>
+        <v>43.36841588609593</v>
       </c>
       <c r="J15" t="n">
-        <v>119.006247974827</v>
+        <v>119.0062479748271</v>
       </c>
       <c r="K15" t="n">
-        <v>203.400632825273</v>
+        <v>203.4006328252731</v>
       </c>
       <c r="L15" t="n">
-        <v>273.4972520307234</v>
+        <v>273.4972520307235</v>
       </c>
       <c r="M15" t="n">
-        <v>319.1583930878676</v>
+        <v>319.1583930878677</v>
       </c>
       <c r="N15" t="n">
-        <v>327.6055660674651</v>
+        <v>327.6055660674653</v>
       </c>
       <c r="O15" t="n">
-        <v>299.6950900093051</v>
+        <v>299.6950900093052</v>
       </c>
       <c r="P15" t="n">
         <v>240.5317313183241</v>
       </c>
       <c r="Q15" t="n">
-        <v>160.7890924775714</v>
+        <v>160.7890924775715</v>
       </c>
       <c r="R15" t="n">
-        <v>78.20678920809858</v>
+        <v>78.20678920809863</v>
       </c>
       <c r="S15" t="n">
-        <v>23.39684602262625</v>
+        <v>23.39684602262626</v>
       </c>
       <c r="T15" t="n">
-        <v>5.07714321010473</v>
+        <v>5.077143210104731</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08286958449572471</v>
+        <v>0.08286958449572474</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>1.056021153246065</v>
       </c>
       <c r="H16" t="n">
-        <v>9.388988071587749</v>
+        <v>9.388988071587752</v>
       </c>
       <c r="I16" t="n">
-        <v>31.75743613579986</v>
+        <v>31.75743613579987</v>
       </c>
       <c r="J16" t="n">
-        <v>74.6606955344968</v>
+        <v>74.66069553449682</v>
       </c>
       <c r="K16" t="n">
         <v>122.6904576225883</v>
       </c>
       <c r="L16" t="n">
-        <v>157.0015449107832</v>
+        <v>157.0015449107833</v>
       </c>
       <c r="M16" t="n">
-        <v>165.5361158674718</v>
+        <v>165.5361158674719</v>
       </c>
       <c r="N16" t="n">
         <v>161.6000370235548</v>
       </c>
       <c r="O16" t="n">
-        <v>149.2637899151802</v>
+        <v>149.2637899151803</v>
       </c>
       <c r="P16" t="n">
         <v>127.7209583889604</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.42737129590459</v>
+        <v>88.42737129590463</v>
       </c>
       <c r="R16" t="n">
-        <v>47.48255112686397</v>
+        <v>47.48255112686399</v>
       </c>
       <c r="S16" t="n">
         <v>18.40356864338824</v>
       </c>
       <c r="T16" t="n">
-        <v>4.512090382051368</v>
+        <v>4.512090382051369</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0576011538134218</v>
+        <v>0.05760115381342182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35024,7 +35024,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,13 +35261,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>553.4080584783558</v>
       </c>
       <c r="M11" t="n">
-        <v>632.5473837308866</v>
+        <v>632.5473837308867</v>
       </c>
       <c r="N11" t="n">
         <v>628.0028662067607</v>
@@ -35425,10 +35425,10 @@
         <v>547.3612198775417</v>
       </c>
       <c r="P11" t="n">
-        <v>429.105205286264</v>
+        <v>429.1052052862642</v>
       </c>
       <c r="Q11" t="n">
-        <v>244.2383611077452</v>
+        <v>244.2383611077453</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.2596566485692</v>
       </c>
       <c r="K12" t="n">
-        <v>65.55919385091403</v>
+        <v>330.0244308634926</v>
       </c>
       <c r="L12" t="n">
-        <v>229.9869862567368</v>
+        <v>505.7832175543084</v>
       </c>
       <c r="M12" t="n">
-        <v>642.7294229158492</v>
+        <v>302.6710665970669</v>
       </c>
       <c r="N12" t="n">
         <v>675.6062283276854</v>
       </c>
       <c r="O12" t="n">
-        <v>550.9611648415902</v>
+        <v>550.9611648415903</v>
       </c>
       <c r="P12" t="n">
-        <v>425.020092543931</v>
+        <v>106.5573239039939</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.80731839154987</v>
+        <v>20.8073183915499</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4.537418963981764</v>
+        <v>4.537418963981864</v>
       </c>
       <c r="K13" t="n">
-        <v>123.6568693428631</v>
+        <v>123.6568693428633</v>
       </c>
       <c r="L13" t="n">
-        <v>207.8274737172571</v>
+        <v>207.8274737172572</v>
       </c>
       <c r="M13" t="n">
-        <v>228.3558963754701</v>
+        <v>228.3558963754703</v>
       </c>
       <c r="N13" t="n">
-        <v>228.9681129489411</v>
+        <v>228.9681129489412</v>
       </c>
       <c r="O13" t="n">
-        <v>197.0848213753777</v>
+        <v>197.0848213753778</v>
       </c>
       <c r="P13" t="n">
-        <v>148.2354212000116</v>
+        <v>148.2354212000118</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.50123159036795</v>
+        <v>25.50123159036807</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>187.8620216248087</v>
+        <v>187.8620216248088</v>
       </c>
       <c r="K14" t="n">
-        <v>403.5209209453043</v>
+        <v>403.5209209453044</v>
       </c>
       <c r="L14" t="n">
-        <v>553.4080584783558</v>
+        <v>553.4080584783559</v>
       </c>
       <c r="M14" t="n">
-        <v>632.5473837308866</v>
+        <v>632.5473837308867</v>
       </c>
       <c r="N14" t="n">
-        <v>628.0028662067607</v>
+        <v>628.0028662067608</v>
       </c>
       <c r="O14" t="n">
-        <v>547.3612198775417</v>
+        <v>547.3612198775418</v>
       </c>
       <c r="P14" t="n">
-        <v>429.105205286264</v>
+        <v>429.1052052862642</v>
       </c>
       <c r="Q14" t="n">
-        <v>244.2383611077452</v>
+        <v>244.2383611077454</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>118.2596566485692</v>
       </c>
       <c r="K15" t="n">
-        <v>330.0244308634926</v>
+        <v>330.0244308634927</v>
       </c>
       <c r="L15" t="n">
-        <v>505.7832175543084</v>
+        <v>505.7832175543085</v>
       </c>
       <c r="M15" t="n">
-        <v>463.5506723006835</v>
+        <v>177.0243591658494</v>
       </c>
       <c r="N15" t="n">
-        <v>196.2638539841318</v>
+        <v>272.7128793831165</v>
       </c>
       <c r="O15" t="n">
-        <v>550.9611648415902</v>
+        <v>550.9611648415903</v>
       </c>
       <c r="P15" t="n">
-        <v>425.020092543931</v>
+        <v>425.0200925439311</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.80731839154987</v>
+        <v>230.8846061273991</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.537418963981764</v>
+        <v>4.537418963981821</v>
       </c>
       <c r="K16" t="n">
-        <v>123.6568693428631</v>
+        <v>123.6568693428632</v>
       </c>
       <c r="L16" t="n">
-        <v>207.8274737172571</v>
+        <v>207.8274737172572</v>
       </c>
       <c r="M16" t="n">
-        <v>228.3558963754701</v>
+        <v>228.3558963754702</v>
       </c>
       <c r="N16" t="n">
-        <v>228.9681129489411</v>
+        <v>228.9681129489412</v>
       </c>
       <c r="O16" t="n">
         <v>197.0848213753777</v>
       </c>
       <c r="P16" t="n">
-        <v>148.2354212000116</v>
+        <v>148.2354212000117</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.50123159036795</v>
+        <v>25.50123159036803</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>118.2596566485692</v>
       </c>
       <c r="K18" t="n">
-        <v>65.55919385091406</v>
+        <v>330.0244308634926</v>
       </c>
       <c r="L18" t="n">
-        <v>505.7832175543084</v>
+        <v>134.9428722508492</v>
       </c>
       <c r="M18" t="n">
         <v>642.7294229158492</v>
@@ -35975,13 +35975,13 @@
         <v>675.6062283276854</v>
       </c>
       <c r="O18" t="n">
-        <v>550.9611648415903</v>
+        <v>371.6658660904181</v>
       </c>
       <c r="P18" t="n">
-        <v>149.2238612463594</v>
+        <v>106.5573239039939</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.8073183915499</v>
+        <v>230.884606127399</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.82949706299513</v>
+        <v>63.82949706299512</v>
       </c>
       <c r="K19" t="n">
         <v>182.9489474418765</v>
@@ -36051,7 +36051,7 @@
         <v>287.6479744744835</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2601910479545</v>
+        <v>288.2601910479544</v>
       </c>
       <c r="O19" t="n">
         <v>256.3768994743911</v>
@@ -36060,7 +36060,7 @@
         <v>207.527499299025</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.79330968938133</v>
+        <v>84.79330968938132</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>628.0028662067607</v>
       </c>
       <c r="O20" t="n">
-        <v>547.3612198775417</v>
+        <v>547.3612198775419</v>
       </c>
       <c r="P20" t="n">
         <v>429.1052052862642</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>118.2596566485692</v>
       </c>
       <c r="K21" t="n">
-        <v>65.55919385091406</v>
+        <v>330.0244308634926</v>
       </c>
       <c r="L21" t="n">
         <v>505.7832175543084</v>
@@ -36209,16 +36209,16 @@
         <v>642.7294229158492</v>
       </c>
       <c r="N21" t="n">
-        <v>399.8099970301137</v>
+        <v>200.8701349098461</v>
       </c>
       <c r="O21" t="n">
-        <v>550.9611648415903</v>
+        <v>157.0988455648607</v>
       </c>
       <c r="P21" t="n">
         <v>425.020092543931</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.8073183915499</v>
+        <v>230.884606127399</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.82949706299506</v>
+        <v>63.82949706299512</v>
       </c>
       <c r="K22" t="n">
-        <v>182.9489474418764</v>
+        <v>182.9489474418765</v>
       </c>
       <c r="L22" t="n">
-        <v>267.1195518162704</v>
+        <v>267.1195518162705</v>
       </c>
       <c r="M22" t="n">
         <v>287.6479744744835</v>
@@ -36291,13 +36291,13 @@
         <v>288.2601910479544</v>
       </c>
       <c r="O22" t="n">
-        <v>256.3768994743909</v>
+        <v>256.3768994743911</v>
       </c>
       <c r="P22" t="n">
         <v>207.527499299025</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.79330968938126</v>
+        <v>84.79330968938132</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>118.2596566485692</v>
       </c>
       <c r="K24" t="n">
-        <v>259.2311611524147</v>
+        <v>330.0244308634926</v>
       </c>
       <c r="L24" t="n">
         <v>505.7832175543084</v>
@@ -36446,16 +36446,16 @@
         <v>642.7294229158492</v>
       </c>
       <c r="N24" t="n">
-        <v>196.2638539841319</v>
+        <v>675.6062283276854</v>
       </c>
       <c r="O24" t="n">
-        <v>550.9611648415903</v>
+        <v>210.9028085228078</v>
       </c>
       <c r="P24" t="n">
         <v>106.5573239039939</v>
       </c>
       <c r="Q24" t="n">
-        <v>230.884606127399</v>
+        <v>20.8073183915499</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.82949706299506</v>
+        <v>63.8294970629951</v>
       </c>
       <c r="K25" t="n">
-        <v>182.9489474418764</v>
+        <v>182.9489474418765</v>
       </c>
       <c r="L25" t="n">
         <v>267.1195518162704</v>
@@ -36528,13 +36528,13 @@
         <v>288.2601910479544</v>
       </c>
       <c r="O25" t="n">
-        <v>256.3768994743909</v>
+        <v>256.376899474391</v>
       </c>
       <c r="P25" t="n">
         <v>207.527499299025</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.79330968938126</v>
+        <v>84.7933096893813</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36911,19 +36911,19 @@
         <v>118.2596566485692</v>
       </c>
       <c r="K30" t="n">
-        <v>330.0244308634926</v>
+        <v>226.1286827491127</v>
       </c>
       <c r="L30" t="n">
-        <v>505.7832175543084</v>
+        <v>134.9428722508492</v>
       </c>
       <c r="M30" t="n">
-        <v>253.473384564834</v>
+        <v>642.7294229158492</v>
       </c>
       <c r="N30" t="n">
-        <v>196.2638539841319</v>
+        <v>675.6062283276854</v>
       </c>
       <c r="O30" t="n">
-        <v>550.9611648415903</v>
+        <v>157.0988455648607</v>
       </c>
       <c r="P30" t="n">
         <v>425.020092543931</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.82949706299506</v>
+        <v>63.82949706299507</v>
       </c>
       <c r="K31" t="n">
-        <v>182.9489474418764</v>
+        <v>182.9489474418765</v>
       </c>
       <c r="L31" t="n">
         <v>267.1195518162704</v>
@@ -37002,13 +37002,13 @@
         <v>288.2601910479544</v>
       </c>
       <c r="O31" t="n">
-        <v>256.3768994743909</v>
+        <v>256.376899474391</v>
       </c>
       <c r="P31" t="n">
         <v>207.527499299025</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.79330968938126</v>
+        <v>84.79330968938127</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>505.7832175543084</v>
       </c>
       <c r="M36" t="n">
-        <v>253.473384564834</v>
+        <v>642.7294229158492</v>
       </c>
       <c r="N36" t="n">
         <v>196.2638539841319</v>
       </c>
       <c r="O36" t="n">
-        <v>550.9611648415903</v>
+        <v>161.7051264905749</v>
       </c>
       <c r="P36" t="n">
         <v>425.020092543931</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.39742532400692</v>
+        <v>69.39742532400699</v>
       </c>
       <c r="K37" t="n">
-        <v>188.5168757028883</v>
+        <v>188.5168757028884</v>
       </c>
       <c r="L37" t="n">
         <v>272.6874800772823</v>
       </c>
       <c r="M37" t="n">
-        <v>293.2159027354953</v>
+        <v>293.2159027354954</v>
       </c>
       <c r="N37" t="n">
         <v>293.8281193089663</v>
       </c>
       <c r="O37" t="n">
-        <v>261.9448277354028</v>
+        <v>261.9448277354029</v>
       </c>
       <c r="P37" t="n">
-        <v>213.0954275600368</v>
+        <v>213.0954275600369</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.36123795039312</v>
+        <v>90.36123795039319</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>330.0244308634926</v>
       </c>
       <c r="L39" t="n">
-        <v>505.7832175543084</v>
+        <v>134.9428722508492</v>
       </c>
       <c r="M39" t="n">
-        <v>253.473384564834</v>
+        <v>642.7294229158492</v>
       </c>
       <c r="N39" t="n">
-        <v>196.2638539841319</v>
+        <v>675.6062283276854</v>
       </c>
       <c r="O39" t="n">
         <v>550.9611648415903</v>
       </c>
       <c r="P39" t="n">
-        <v>425.020092543931</v>
+        <v>137.3393128886711</v>
       </c>
       <c r="Q39" t="n">
-        <v>230.884606127399</v>
+        <v>20.8073183915499</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.39742532400692</v>
+        <v>69.39742532400696</v>
       </c>
       <c r="K40" t="n">
         <v>188.5168757028883</v>
@@ -37713,13 +37713,13 @@
         <v>293.8281193089663</v>
       </c>
       <c r="O40" t="n">
-        <v>261.9448277354028</v>
+        <v>261.9448277354029</v>
       </c>
       <c r="P40" t="n">
-        <v>213.0954275600368</v>
+        <v>213.0954275600369</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.36123795039312</v>
+        <v>90.36123795039316</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>429.1052052862642</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.2383611077454</v>
+        <v>244.2383611077453</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>118.2596566485692</v>
       </c>
       <c r="K42" t="n">
-        <v>245.5938505588612</v>
+        <v>330.0244308634926</v>
       </c>
       <c r="L42" t="n">
         <v>505.7832175543084</v>
       </c>
       <c r="M42" t="n">
-        <v>177.0243591658493</v>
+        <v>642.7294229158492</v>
       </c>
       <c r="N42" t="n">
-        <v>675.6062283276854</v>
+        <v>200.8701349098461</v>
       </c>
       <c r="O42" t="n">
-        <v>550.9611648415903</v>
+        <v>157.0988455648607</v>
       </c>
       <c r="P42" t="n">
-        <v>106.5573239039939</v>
+        <v>425.020092543931</v>
       </c>
       <c r="Q42" t="n">
         <v>230.884606127399</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>63.82949706299512</v>
+        <v>63.82949706299509</v>
       </c>
       <c r="K43" t="n">
         <v>182.9489474418765</v>
       </c>
       <c r="L43" t="n">
-        <v>267.1195518162705</v>
+        <v>267.1195518162704</v>
       </c>
       <c r="M43" t="n">
         <v>287.6479744744835</v>
@@ -37950,13 +37950,13 @@
         <v>288.2601910479544</v>
       </c>
       <c r="O43" t="n">
-        <v>256.3768994743911</v>
+        <v>256.376899474391</v>
       </c>
       <c r="P43" t="n">
         <v>207.527499299025</v>
       </c>
       <c r="Q43" t="n">
-        <v>84.79330968938132</v>
+        <v>84.79330968938129</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>628.0028662067607</v>
       </c>
       <c r="O44" t="n">
-        <v>547.3612198775417</v>
+        <v>547.3612198775419</v>
       </c>
       <c r="P44" t="n">
         <v>429.1052052862642</v>
@@ -38096,7 +38096,7 @@
         <v>118.2596566485692</v>
       </c>
       <c r="K45" t="n">
-        <v>259.2311611524147</v>
+        <v>65.55919385091406</v>
       </c>
       <c r="L45" t="n">
         <v>505.7832175543084</v>
@@ -38105,13 +38105,13 @@
         <v>642.7294229158492</v>
       </c>
       <c r="N45" t="n">
-        <v>196.2638539841319</v>
+        <v>675.6062283276854</v>
       </c>
       <c r="O45" t="n">
-        <v>550.9611648415903</v>
+        <v>157.0988455648607</v>
       </c>
       <c r="P45" t="n">
-        <v>106.5573239039939</v>
+        <v>214.7492361386706</v>
       </c>
       <c r="Q45" t="n">
         <v>230.884606127399</v>
